--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD74285-720C-451A-B463-2D064E3AFD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DCB81-82F9-499A-80FE-A31B28103319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
@@ -981,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,221 +1063,224 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,8 +1612,8 @@
     <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="48" bestFit="1" customWidth="1"/>
     <col min="9" max="22" width="3.5" bestFit="1" customWidth="1"/>
     <col min="23" max="31" width="2.5" bestFit="1" customWidth="1"/>
     <col min="32" max="52" width="3.5" bestFit="1" customWidth="1"/>
@@ -1620,534 +1623,534 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="56" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="56" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="56" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="27"/>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="28"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="96"/>
+      <c r="BK2" s="96"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="96"/>
+      <c r="BP2" s="96"/>
+      <c r="BQ2" s="96"/>
+      <c r="BR2" s="96"/>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="96"/>
+      <c r="CC2" s="96"/>
+      <c r="CD2" s="97"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="59" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="30">
         <v>18</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="31">
         <v>19</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="31">
         <v>20</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="31">
         <v>21</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="34">
         <v>22</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="34">
         <v>23</v>
       </c>
-      <c r="O3" s="75">
+      <c r="O3" s="61">
         <v>24</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="31">
         <v>25</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="31">
         <v>26</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="31">
         <v>27</v>
       </c>
-      <c r="S3" s="75">
+      <c r="S3" s="61">
         <v>28</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="34">
         <v>29</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="34">
         <v>30</v>
       </c>
-      <c r="V3" s="80">
+      <c r="V3" s="66">
         <v>31</v>
       </c>
-      <c r="W3" s="43">
+      <c r="W3" s="30">
         <v>1</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="31">
         <v>2</v>
       </c>
-      <c r="Y3" s="44">
+      <c r="Y3" s="31">
         <v>3</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="31">
         <v>4</v>
       </c>
-      <c r="AA3" s="47">
+      <c r="AA3" s="34">
         <v>5</v>
       </c>
-      <c r="AB3" s="47">
+      <c r="AB3" s="34">
         <v>6</v>
       </c>
-      <c r="AC3" s="75">
+      <c r="AC3" s="61">
         <v>7</v>
       </c>
-      <c r="AD3" s="44">
+      <c r="AD3" s="31">
         <v>8</v>
       </c>
-      <c r="AE3" s="44">
+      <c r="AE3" s="31">
         <v>9</v>
       </c>
-      <c r="AF3" s="44">
+      <c r="AF3" s="31">
         <v>10</v>
       </c>
-      <c r="AG3" s="75">
+      <c r="AG3" s="61">
         <v>11</v>
       </c>
-      <c r="AH3" s="47">
+      <c r="AH3" s="34">
         <v>12</v>
       </c>
-      <c r="AI3" s="47">
+      <c r="AI3" s="34">
         <v>13</v>
       </c>
-      <c r="AJ3" s="75">
+      <c r="AJ3" s="61">
         <v>14</v>
       </c>
-      <c r="AK3" s="48">
+      <c r="AK3" s="35">
         <v>15</v>
       </c>
-      <c r="AL3" s="48">
+      <c r="AL3" s="35">
         <v>16</v>
       </c>
-      <c r="AM3" s="48">
+      <c r="AM3" s="35">
         <v>17</v>
       </c>
-      <c r="AN3" s="93">
+      <c r="AN3" s="79">
         <v>18</v>
       </c>
-      <c r="AO3" s="52">
+      <c r="AO3" s="39">
         <v>19</v>
       </c>
-      <c r="AP3" s="49">
+      <c r="AP3" s="36">
         <v>20</v>
       </c>
-      <c r="AQ3" s="93">
+      <c r="AQ3" s="79">
         <v>21</v>
       </c>
-      <c r="AR3" s="48">
+      <c r="AR3" s="35">
         <v>22</v>
       </c>
-      <c r="AS3" s="48">
+      <c r="AS3" s="35">
         <v>23</v>
       </c>
-      <c r="AT3" s="48">
+      <c r="AT3" s="35">
         <v>24</v>
       </c>
-      <c r="AU3" s="48">
+      <c r="AU3" s="35">
         <v>25</v>
       </c>
-      <c r="AV3" s="49">
+      <c r="AV3" s="36">
         <v>26</v>
       </c>
-      <c r="AW3" s="49">
+      <c r="AW3" s="36">
         <v>27</v>
       </c>
-      <c r="AX3" s="93">
+      <c r="AX3" s="79">
         <v>28</v>
       </c>
-      <c r="AY3" s="48">
+      <c r="AY3" s="35">
         <v>29</v>
       </c>
-      <c r="AZ3" s="45">
+      <c r="AZ3" s="32">
         <v>30</v>
       </c>
-      <c r="BA3" s="43">
+      <c r="BA3" s="30">
         <v>1</v>
       </c>
-      <c r="BB3" s="44">
+      <c r="BB3" s="31">
         <v>2</v>
       </c>
-      <c r="BC3" s="47">
+      <c r="BC3" s="34">
         <v>3</v>
       </c>
-      <c r="BD3" s="47">
+      <c r="BD3" s="34">
         <v>4</v>
       </c>
-      <c r="BE3" s="75">
+      <c r="BE3" s="61">
         <v>5</v>
       </c>
-      <c r="BF3" s="50">
+      <c r="BF3" s="37">
         <v>6</v>
       </c>
-      <c r="BG3" s="50">
+      <c r="BG3" s="37">
         <v>7</v>
       </c>
-      <c r="BH3" s="50">
+      <c r="BH3" s="37">
         <v>8</v>
       </c>
-      <c r="BI3" s="50">
+      <c r="BI3" s="37">
         <v>9</v>
       </c>
-      <c r="BJ3" s="47">
+      <c r="BJ3" s="34">
         <v>10</v>
       </c>
-      <c r="BK3" s="47">
+      <c r="BK3" s="34">
         <v>11</v>
       </c>
-      <c r="BL3" s="75">
+      <c r="BL3" s="61">
         <v>12</v>
       </c>
-      <c r="BM3" s="50">
+      <c r="BM3" s="37">
         <v>13</v>
       </c>
-      <c r="BN3" s="50">
+      <c r="BN3" s="37">
         <v>14</v>
       </c>
-      <c r="BO3" s="51">
+      <c r="BO3" s="38">
         <v>15</v>
       </c>
-      <c r="BP3" s="51">
+      <c r="BP3" s="38">
         <v>16</v>
       </c>
-      <c r="BQ3" s="49">
+      <c r="BQ3" s="36">
         <v>17</v>
       </c>
-      <c r="BR3" s="49">
+      <c r="BR3" s="36">
         <v>18</v>
       </c>
-      <c r="BS3" s="93">
+      <c r="BS3" s="79">
         <v>19</v>
       </c>
-      <c r="BT3" s="51">
+      <c r="BT3" s="38">
         <v>20</v>
       </c>
-      <c r="BU3" s="51">
+      <c r="BU3" s="38">
         <v>21</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="36">
         <v>22</v>
       </c>
-      <c r="BW3" s="49">
+      <c r="BW3" s="36">
         <v>23</v>
       </c>
-      <c r="BX3" s="49">
+      <c r="BX3" s="36">
         <v>24</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="36">
         <v>25</v>
       </c>
-      <c r="BZ3" s="93">
+      <c r="BZ3" s="79">
         <v>26</v>
       </c>
-      <c r="CA3" s="51">
+      <c r="CA3" s="38">
         <v>27</v>
       </c>
-      <c r="CB3" s="51">
+      <c r="CB3" s="38">
         <v>28</v>
       </c>
-      <c r="CC3" s="51">
+      <c r="CC3" s="38">
         <v>29</v>
       </c>
-      <c r="CD3" s="53">
+      <c r="CD3" s="40">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:82" x14ac:dyDescent="0.4">
+      <c r="B4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="28">
         <v>44334</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="42">
         <v>44334</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="57"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="76"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="76"/>
+      <c r="S4" s="62"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="87"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="73"/>
       <c r="AK4" s="22"/>
       <c r="AL4" s="22"/>
       <c r="AM4" s="22"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="90"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="76"/>
       <c r="AP4" s="23"/>
-      <c r="AQ4" s="76"/>
+      <c r="AQ4" s="62"/>
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
       <c r="AT4" s="22"/>
       <c r="AU4" s="22"/>
       <c r="AV4" s="23"/>
       <c r="AW4" s="23"/>
-      <c r="AX4" s="76"/>
+      <c r="AX4" s="62"/>
       <c r="AY4" s="22"/>
       <c r="AZ4" s="18"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="73"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
       <c r="BO4" s="22"/>
       <c r="BP4" s="22"/>
       <c r="BQ4" s="23"/>
       <c r="BR4" s="23"/>
-      <c r="BS4" s="76"/>
+      <c r="BS4" s="62"/>
       <c r="BT4" s="22"/>
       <c r="BU4" s="22"/>
       <c r="BV4" s="23"/>
       <c r="BW4" s="23"/>
       <c r="BX4" s="23"/>
       <c r="BY4" s="23"/>
-      <c r="BZ4" s="76"/>
+      <c r="BZ4" s="62"/>
       <c r="CA4" s="22"/>
       <c r="CB4" s="22"/>
       <c r="CC4" s="22"/>
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="28">
         <v>44334</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="28">
         <v>44334</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="95"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="13"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="77"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="77"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="59"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="45"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="88"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="74"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="88"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="74"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="91"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="77"/>
       <c r="AP5" s="2"/>
-      <c r="AQ5" s="77"/>
+      <c r="AQ5" s="63"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="77"/>
+      <c r="AX5" s="63"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="19"/>
-      <c r="BA5" s="59"/>
+      <c r="BA5" s="45"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="85"/>
-      <c r="BD5" s="85"/>
-      <c r="BE5" s="88"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="74"/>
       <c r="BF5" s="14"/>
       <c r="BG5" s="14"/>
       <c r="BH5" s="14"/>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="85"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="88"/>
+      <c r="BJ5" s="71"/>
+      <c r="BK5" s="71"/>
+      <c r="BL5" s="74"/>
       <c r="BM5" s="14"/>
       <c r="BN5" s="14"/>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="2"/>
       <c r="BR5" s="2"/>
-      <c r="BS5" s="77"/>
+      <c r="BS5" s="63"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
       <c r="BV5" s="2"/>
       <c r="BW5" s="2"/>
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
-      <c r="BZ5" s="77"/>
+      <c r="BZ5" s="63"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2159,179 +2162,179 @@
       <c r="F6" s="26">
         <v>44335</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="77"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="77"/>
+      <c r="S6" s="63"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="59"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="45"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="88"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="74"/>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="88"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="74"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="91"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="77"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="77"/>
+      <c r="AQ6" s="63"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="77"/>
+      <c r="AX6" s="63"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="19"/>
-      <c r="BA6" s="59"/>
+      <c r="BA6" s="45"/>
       <c r="BB6" s="14"/>
-      <c r="BC6" s="85"/>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="88"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="74"/>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
       <c r="BH6" s="14"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="85"/>
-      <c r="BK6" s="85"/>
-      <c r="BL6" s="88"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="74"/>
       <c r="BM6" s="14"/>
       <c r="BN6" s="14"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="2"/>
       <c r="BR6" s="2"/>
-      <c r="BS6" s="77"/>
+      <c r="BS6" s="63"/>
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="2"/>
       <c r="BW6" s="2"/>
       <c r="BX6" s="2"/>
       <c r="BY6" s="2"/>
-      <c r="BZ6" s="77"/>
+      <c r="BZ6" s="63"/>
       <c r="CA6" s="1"/>
       <c r="CB6" s="1"/>
       <c r="CC6" s="1"/>
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="71">
+      <c r="G7" s="57">
         <v>0</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="77"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="77"/>
+      <c r="S7" s="63"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="59"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="45"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="88"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="74"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="88"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="74"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="91"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="77"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="77"/>
+      <c r="AQ7" s="63"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="77"/>
+      <c r="AX7" s="63"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="19"/>
-      <c r="BA7" s="59"/>
+      <c r="BA7" s="45"/>
       <c r="BB7" s="14"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="88"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="74"/>
       <c r="BF7" s="14"/>
       <c r="BG7" s="14"/>
       <c r="BH7" s="14"/>
       <c r="BI7" s="14"/>
-      <c r="BJ7" s="85"/>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="88"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="74"/>
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="2"/>
       <c r="BR7" s="2"/>
-      <c r="BS7" s="77"/>
+      <c r="BS7" s="63"/>
       <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
       <c r="BV7" s="2"/>
       <c r="BW7" s="2"/>
       <c r="BX7" s="2"/>
       <c r="BY7" s="2"/>
-      <c r="BZ7" s="77"/>
+      <c r="BZ7" s="63"/>
       <c r="CA7" s="1"/>
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="90" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2343,177 +2346,177 @@
       <c r="F8" s="26">
         <v>44335</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="6"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="77"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="77"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="59"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="45"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="88"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="74"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="88"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="74"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="91"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="77"/>
       <c r="AP8" s="2"/>
-      <c r="AQ8" s="77"/>
+      <c r="AQ8" s="63"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="77"/>
+      <c r="AX8" s="63"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="19"/>
-      <c r="BA8" s="59"/>
+      <c r="BA8" s="45"/>
       <c r="BB8" s="14"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="85"/>
-      <c r="BE8" s="88"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="74"/>
       <c r="BF8" s="14"/>
       <c r="BG8" s="14"/>
       <c r="BH8" s="14"/>
       <c r="BI8" s="14"/>
-      <c r="BJ8" s="85"/>
-      <c r="BK8" s="85"/>
-      <c r="BL8" s="88"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="71"/>
+      <c r="BL8" s="74"/>
       <c r="BM8" s="14"/>
       <c r="BN8" s="14"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="2"/>
       <c r="BR8" s="2"/>
-      <c r="BS8" s="77"/>
+      <c r="BS8" s="63"/>
       <c r="BT8" s="1"/>
       <c r="BU8" s="1"/>
       <c r="BV8" s="2"/>
       <c r="BW8" s="2"/>
       <c r="BX8" s="2"/>
       <c r="BY8" s="2"/>
-      <c r="BZ8" s="77"/>
+      <c r="BZ8" s="63"/>
       <c r="CA8" s="1"/>
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="71">
+      <c r="G9" s="57">
         <v>0</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="77"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="77"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="59"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="45"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="88"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="88"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="74"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="91"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="77"/>
       <c r="AP9" s="2"/>
-      <c r="AQ9" s="77"/>
+      <c r="AQ9" s="63"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="77"/>
+      <c r="AX9" s="63"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="19"/>
-      <c r="BA9" s="59"/>
+      <c r="BA9" s="45"/>
       <c r="BB9" s="14"/>
-      <c r="BC9" s="85"/>
-      <c r="BD9" s="85"/>
-      <c r="BE9" s="88"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
+      <c r="BE9" s="74"/>
       <c r="BF9" s="14"/>
       <c r="BG9" s="14"/>
       <c r="BH9" s="14"/>
       <c r="BI9" s="14"/>
-      <c r="BJ9" s="85"/>
-      <c r="BK9" s="85"/>
-      <c r="BL9" s="88"/>
+      <c r="BJ9" s="71"/>
+      <c r="BK9" s="71"/>
+      <c r="BL9" s="74"/>
       <c r="BM9" s="14"/>
       <c r="BN9" s="14"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="2"/>
       <c r="BR9" s="2"/>
-      <c r="BS9" s="77"/>
+      <c r="BS9" s="63"/>
       <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
       <c r="BV9" s="2"/>
       <c r="BW9" s="2"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
-      <c r="BZ9" s="77"/>
+      <c r="BZ9" s="63"/>
       <c r="CA9" s="1"/>
       <c r="CB9" s="1"/>
       <c r="CC9" s="1"/>
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="38"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2525,179 +2528,183 @@
       <c r="F10" s="26">
         <v>44335</v>
       </c>
-      <c r="G10" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="97" t="s">
+      <c r="G10" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="77"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="77"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="59"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="45"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="88"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="74"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="88"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="74"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="91"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="77"/>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="77"/>
+      <c r="AQ10" s="63"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="77"/>
+      <c r="AX10" s="63"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="19"/>
-      <c r="BA10" s="59"/>
+      <c r="BA10" s="45"/>
       <c r="BB10" s="14"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="85"/>
-      <c r="BE10" s="88"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="74"/>
       <c r="BF10" s="14"/>
       <c r="BG10" s="14"/>
       <c r="BH10" s="14"/>
       <c r="BI10" s="14"/>
-      <c r="BJ10" s="85"/>
-      <c r="BK10" s="85"/>
-      <c r="BL10" s="88"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="71"/>
+      <c r="BL10" s="74"/>
       <c r="BM10" s="14"/>
       <c r="BN10" s="14"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="2"/>
       <c r="BR10" s="2"/>
-      <c r="BS10" s="77"/>
+      <c r="BS10" s="63"/>
       <c r="BT10" s="1"/>
       <c r="BU10" s="1"/>
       <c r="BV10" s="2"/>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
       <c r="BY10" s="2"/>
-      <c r="BZ10" s="77"/>
+      <c r="BZ10" s="63"/>
       <c r="CA10" s="1"/>
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="71">
-        <v>0</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="54"/>
+      <c r="E11" s="28">
+        <v>44334</v>
+      </c>
+      <c r="F11" s="28">
+        <v>44334</v>
+      </c>
+      <c r="G11" s="57">
+        <v>1</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="77"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="77"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="59"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="45"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="88"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="74"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="88"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="74"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="91"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="77"/>
       <c r="AP11" s="2"/>
-      <c r="AQ11" s="77"/>
+      <c r="AQ11" s="63"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="77"/>
+      <c r="AX11" s="63"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="19"/>
-      <c r="BA11" s="59"/>
+      <c r="BA11" s="45"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="85"/>
-      <c r="BE11" s="88"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="74"/>
       <c r="BF11" s="14"/>
       <c r="BG11" s="14"/>
       <c r="BH11" s="14"/>
       <c r="BI11" s="14"/>
-      <c r="BJ11" s="85"/>
-      <c r="BK11" s="85"/>
-      <c r="BL11" s="88"/>
+      <c r="BJ11" s="71"/>
+      <c r="BK11" s="71"/>
+      <c r="BL11" s="74"/>
       <c r="BM11" s="14"/>
       <c r="BN11" s="14"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="2"/>
       <c r="BR11" s="2"/>
-      <c r="BS11" s="77"/>
+      <c r="BS11" s="63"/>
       <c r="BT11" s="1"/>
       <c r="BU11" s="1"/>
       <c r="BV11" s="2"/>
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
-      <c r="BZ11" s="77"/>
+      <c r="BZ11" s="63"/>
       <c r="CA11" s="1"/>
       <c r="CB11" s="1"/>
       <c r="CC11" s="1"/>
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2709,177 +2716,177 @@
       <c r="F12" s="26">
         <v>44336</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
       <c r="L12" s="14"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="77"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="77"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="59"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="45"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="88"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="74"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="88"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="74"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="91"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="77"/>
       <c r="AP12" s="2"/>
-      <c r="AQ12" s="77"/>
+      <c r="AQ12" s="63"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="77"/>
+      <c r="AX12" s="63"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="19"/>
-      <c r="BA12" s="59"/>
+      <c r="BA12" s="45"/>
       <c r="BB12" s="14"/>
-      <c r="BC12" s="85"/>
-      <c r="BD12" s="85"/>
-      <c r="BE12" s="88"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="74"/>
       <c r="BF12" s="14"/>
       <c r="BG12" s="14"/>
       <c r="BH12" s="14"/>
       <c r="BI12" s="14"/>
-      <c r="BJ12" s="85"/>
-      <c r="BK12" s="85"/>
-      <c r="BL12" s="88"/>
+      <c r="BJ12" s="71"/>
+      <c r="BK12" s="71"/>
+      <c r="BL12" s="74"/>
       <c r="BM12" s="14"/>
       <c r="BN12" s="14"/>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="2"/>
       <c r="BR12" s="2"/>
-      <c r="BS12" s="77"/>
+      <c r="BS12" s="63"/>
       <c r="BT12" s="1"/>
       <c r="BU12" s="1"/>
       <c r="BV12" s="2"/>
       <c r="BW12" s="2"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
-      <c r="BZ12" s="77"/>
+      <c r="BZ12" s="63"/>
       <c r="CA12" s="1"/>
       <c r="CB12" s="1"/>
       <c r="CC12" s="1"/>
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="71">
+      <c r="G13" s="57">
         <v>0</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="77"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="77"/>
+      <c r="S13" s="63"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="59"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="45"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="88"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="74"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="88"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="74"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="91"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="77"/>
       <c r="AP13" s="2"/>
-      <c r="AQ13" s="77"/>
+      <c r="AQ13" s="63"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="77"/>
+      <c r="AX13" s="63"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="19"/>
-      <c r="BA13" s="59"/>
+      <c r="BA13" s="45"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="85"/>
-      <c r="BD13" s="85"/>
-      <c r="BE13" s="88"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="74"/>
       <c r="BF13" s="14"/>
       <c r="BG13" s="14"/>
       <c r="BH13" s="14"/>
       <c r="BI13" s="14"/>
-      <c r="BJ13" s="85"/>
-      <c r="BK13" s="85"/>
-      <c r="BL13" s="88"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="74"/>
       <c r="BM13" s="14"/>
       <c r="BN13" s="14"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="2"/>
       <c r="BR13" s="2"/>
-      <c r="BS13" s="77"/>
+      <c r="BS13" s="63"/>
       <c r="BT13" s="1"/>
       <c r="BU13" s="1"/>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
-      <c r="BZ13" s="77"/>
+      <c r="BZ13" s="63"/>
       <c r="CA13" s="1"/>
       <c r="CB13" s="1"/>
       <c r="CC13" s="1"/>
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2891,175 +2898,175 @@
       <c r="F14" s="26">
         <v>44336</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="54"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="77"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="77"/>
+      <c r="S14" s="63"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="59"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="45"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="88"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="74"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="88"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="74"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="91"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="77"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="77"/>
+      <c r="AQ14" s="63"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="77"/>
+      <c r="AX14" s="63"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="19"/>
-      <c r="BA14" s="59"/>
+      <c r="BA14" s="45"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="88"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="74"/>
       <c r="BF14" s="14"/>
       <c r="BG14" s="14"/>
       <c r="BH14" s="14"/>
       <c r="BI14" s="14"/>
-      <c r="BJ14" s="85"/>
-      <c r="BK14" s="85"/>
-      <c r="BL14" s="88"/>
+      <c r="BJ14" s="71"/>
+      <c r="BK14" s="71"/>
+      <c r="BL14" s="74"/>
       <c r="BM14" s="14"/>
       <c r="BN14" s="14"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="2"/>
       <c r="BR14" s="2"/>
-      <c r="BS14" s="77"/>
+      <c r="BS14" s="63"/>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
-      <c r="BZ14" s="77"/>
+      <c r="BZ14" s="63"/>
       <c r="CA14" s="1"/>
       <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="71">
+      <c r="G15" s="57">
         <v>0</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="77"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="77"/>
+      <c r="S15" s="63"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="59"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="45"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="88"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="74"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="88"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="74"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="91"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="77"/>
       <c r="AP15" s="2"/>
-      <c r="AQ15" s="77"/>
+      <c r="AQ15" s="63"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="77"/>
+      <c r="AX15" s="63"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="19"/>
-      <c r="BA15" s="59"/>
+      <c r="BA15" s="45"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
-      <c r="BE15" s="88"/>
+      <c r="BC15" s="71"/>
+      <c r="BD15" s="71"/>
+      <c r="BE15" s="74"/>
       <c r="BF15" s="14"/>
       <c r="BG15" s="14"/>
       <c r="BH15" s="14"/>
       <c r="BI15" s="14"/>
-      <c r="BJ15" s="85"/>
-      <c r="BK15" s="85"/>
-      <c r="BL15" s="88"/>
+      <c r="BJ15" s="71"/>
+      <c r="BK15" s="71"/>
+      <c r="BL15" s="74"/>
       <c r="BM15" s="14"/>
       <c r="BN15" s="14"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="2"/>
       <c r="BR15" s="2"/>
-      <c r="BS15" s="77"/>
+      <c r="BS15" s="63"/>
       <c r="BT15" s="1"/>
       <c r="BU15" s="1"/>
       <c r="BV15" s="2"/>
       <c r="BW15" s="2"/>
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
-      <c r="BZ15" s="77"/>
+      <c r="BZ15" s="63"/>
       <c r="CA15" s="1"/>
       <c r="CB15" s="1"/>
       <c r="CC15" s="1"/>
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="38"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="84" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3071,175 +3078,175 @@
       <c r="F16" s="26">
         <v>44336</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
       <c r="L16" s="1"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="77"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="77"/>
+      <c r="S16" s="63"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="59"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="45"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="88"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="74"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="88"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="74"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="91"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="77"/>
       <c r="AP16" s="2"/>
-      <c r="AQ16" s="77"/>
+      <c r="AQ16" s="63"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="77"/>
+      <c r="AX16" s="63"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="19"/>
-      <c r="BA16" s="59"/>
+      <c r="BA16" s="45"/>
       <c r="BB16" s="14"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
-      <c r="BE16" s="88"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="74"/>
       <c r="BF16" s="14"/>
       <c r="BG16" s="14"/>
       <c r="BH16" s="14"/>
       <c r="BI16" s="14"/>
-      <c r="BJ16" s="85"/>
-      <c r="BK16" s="85"/>
-      <c r="BL16" s="88"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="74"/>
       <c r="BM16" s="14"/>
       <c r="BN16" s="14"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="2"/>
       <c r="BR16" s="2"/>
-      <c r="BS16" s="77"/>
+      <c r="BS16" s="63"/>
       <c r="BT16" s="1"/>
       <c r="BU16" s="1"/>
       <c r="BV16" s="2"/>
       <c r="BW16" s="2"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
-      <c r="BZ16" s="77"/>
+      <c r="BZ16" s="63"/>
       <c r="CA16" s="1"/>
       <c r="CB16" s="1"/>
       <c r="CC16" s="1"/>
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="38"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="71">
+      <c r="G17" s="57">
         <v>0</v>
       </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="77"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="77"/>
+      <c r="S17" s="63"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="59"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="45"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="88"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="74"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="88"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="74"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="91"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="77"/>
       <c r="AP17" s="2"/>
-      <c r="AQ17" s="77"/>
+      <c r="AQ17" s="63"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="77"/>
+      <c r="AX17" s="63"/>
       <c r="AY17" s="1"/>
       <c r="AZ17" s="19"/>
-      <c r="BA17" s="59"/>
+      <c r="BA17" s="45"/>
       <c r="BB17" s="14"/>
-      <c r="BC17" s="85"/>
-      <c r="BD17" s="85"/>
-      <c r="BE17" s="88"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
+      <c r="BE17" s="74"/>
       <c r="BF17" s="14"/>
       <c r="BG17" s="14"/>
       <c r="BH17" s="14"/>
       <c r="BI17" s="14"/>
-      <c r="BJ17" s="85"/>
-      <c r="BK17" s="85"/>
-      <c r="BL17" s="88"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="74"/>
       <c r="BM17" s="14"/>
       <c r="BN17" s="14"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="2"/>
       <c r="BR17" s="2"/>
-      <c r="BS17" s="77"/>
+      <c r="BS17" s="63"/>
       <c r="BT17" s="1"/>
       <c r="BU17" s="1"/>
       <c r="BV17" s="2"/>
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
-      <c r="BZ17" s="77"/>
+      <c r="BZ17" s="63"/>
       <c r="CA17" s="1"/>
       <c r="CB17" s="1"/>
       <c r="CC17" s="1"/>
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="38"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="84" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3251,177 +3258,177 @@
       <c r="F18" s="26">
         <v>44337</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="77"/>
+      <c r="O18" s="63"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="77"/>
+      <c r="S18" s="63"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="59"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="45"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="88"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="74"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="88"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="74"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="91"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="77"/>
       <c r="AP18" s="2"/>
-      <c r="AQ18" s="77"/>
+      <c r="AQ18" s="63"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="AX18" s="77"/>
+      <c r="AX18" s="63"/>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="19"/>
-      <c r="BA18" s="59"/>
+      <c r="BA18" s="45"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="85"/>
-      <c r="BD18" s="85"/>
-      <c r="BE18" s="88"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="71"/>
+      <c r="BE18" s="74"/>
       <c r="BF18" s="14"/>
       <c r="BG18" s="14"/>
       <c r="BH18" s="14"/>
       <c r="BI18" s="14"/>
-      <c r="BJ18" s="85"/>
-      <c r="BK18" s="85"/>
-      <c r="BL18" s="88"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
+      <c r="BL18" s="74"/>
       <c r="BM18" s="14"/>
       <c r="BN18" s="14"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="2"/>
       <c r="BR18" s="2"/>
-      <c r="BS18" s="77"/>
+      <c r="BS18" s="63"/>
       <c r="BT18" s="1"/>
       <c r="BU18" s="1"/>
       <c r="BV18" s="2"/>
       <c r="BW18" s="2"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
-      <c r="BZ18" s="77"/>
+      <c r="BZ18" s="63"/>
       <c r="CA18" s="1"/>
       <c r="CB18" s="1"/>
       <c r="CC18" s="1"/>
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="71">
+      <c r="G19" s="57">
         <v>0</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="77"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="77"/>
+      <c r="S19" s="63"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="59"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="45"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="88"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="74"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="88"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="74"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="91"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="77"/>
       <c r="AP19" s="2"/>
-      <c r="AQ19" s="77"/>
+      <c r="AQ19" s="63"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="77"/>
+      <c r="AX19" s="63"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="19"/>
-      <c r="BA19" s="59"/>
+      <c r="BA19" s="45"/>
       <c r="BB19" s="14"/>
-      <c r="BC19" s="85"/>
-      <c r="BD19" s="85"/>
-      <c r="BE19" s="88"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="71"/>
+      <c r="BE19" s="74"/>
       <c r="BF19" s="14"/>
       <c r="BG19" s="14"/>
       <c r="BH19" s="14"/>
       <c r="BI19" s="14"/>
-      <c r="BJ19" s="85"/>
-      <c r="BK19" s="85"/>
-      <c r="BL19" s="88"/>
+      <c r="BJ19" s="71"/>
+      <c r="BK19" s="71"/>
+      <c r="BL19" s="74"/>
       <c r="BM19" s="14"/>
       <c r="BN19" s="14"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="2"/>
       <c r="BR19" s="2"/>
-      <c r="BS19" s="77"/>
+      <c r="BS19" s="63"/>
       <c r="BT19" s="1"/>
       <c r="BU19" s="1"/>
       <c r="BV19" s="2"/>
       <c r="BW19" s="2"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
-      <c r="BZ19" s="77"/>
+      <c r="BZ19" s="63"/>
       <c r="CA19" s="1"/>
       <c r="CB19" s="1"/>
       <c r="CC19" s="1"/>
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="90" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3433,177 +3440,177 @@
       <c r="F20" s="26">
         <v>44337</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="1"/>
       <c r="K20" s="16"/>
       <c r="L20" s="15"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="77"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="77"/>
+      <c r="S20" s="63"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="59"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="88"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="74"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="88"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="74"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="91"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="77"/>
       <c r="AP20" s="2"/>
-      <c r="AQ20" s="77"/>
+      <c r="AQ20" s="63"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="77"/>
+      <c r="AX20" s="63"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="59"/>
+      <c r="BA20" s="45"/>
       <c r="BB20" s="14"/>
-      <c r="BC20" s="85"/>
-      <c r="BD20" s="85"/>
-      <c r="BE20" s="88"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="71"/>
+      <c r="BE20" s="74"/>
       <c r="BF20" s="14"/>
       <c r="BG20" s="14"/>
       <c r="BH20" s="14"/>
       <c r="BI20" s="14"/>
-      <c r="BJ20" s="85"/>
-      <c r="BK20" s="85"/>
-      <c r="BL20" s="88"/>
+      <c r="BJ20" s="71"/>
+      <c r="BK20" s="71"/>
+      <c r="BL20" s="74"/>
       <c r="BM20" s="14"/>
       <c r="BN20" s="14"/>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="2"/>
       <c r="BR20" s="2"/>
-      <c r="BS20" s="77"/>
+      <c r="BS20" s="63"/>
       <c r="BT20" s="1"/>
       <c r="BU20" s="1"/>
       <c r="BV20" s="2"/>
       <c r="BW20" s="2"/>
       <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
-      <c r="BZ20" s="77"/>
+      <c r="BZ20" s="63"/>
       <c r="CA20" s="1"/>
       <c r="CB20" s="1"/>
       <c r="CC20" s="1"/>
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="38"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="71">
+      <c r="G21" s="57">
         <v>0</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="77"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="77"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="59"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="88"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="74"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="88"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="74"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="91"/>
+      <c r="AN21" s="63"/>
+      <c r="AO21" s="77"/>
       <c r="AP21" s="2"/>
-      <c r="AQ21" s="77"/>
+      <c r="AQ21" s="63"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="77"/>
+      <c r="AX21" s="63"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="19"/>
-      <c r="BA21" s="59"/>
+      <c r="BA21" s="45"/>
       <c r="BB21" s="14"/>
-      <c r="BC21" s="85"/>
-      <c r="BD21" s="85"/>
-      <c r="BE21" s="88"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="71"/>
+      <c r="BE21" s="74"/>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
       <c r="BH21" s="14"/>
       <c r="BI21" s="14"/>
-      <c r="BJ21" s="85"/>
-      <c r="BK21" s="85"/>
-      <c r="BL21" s="88"/>
+      <c r="BJ21" s="71"/>
+      <c r="BK21" s="71"/>
+      <c r="BL21" s="74"/>
       <c r="BM21" s="14"/>
       <c r="BN21" s="14"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="2"/>
       <c r="BR21" s="2"/>
-      <c r="BS21" s="77"/>
+      <c r="BS21" s="63"/>
       <c r="BT21" s="1"/>
       <c r="BU21" s="1"/>
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
       <c r="BY21" s="2"/>
-      <c r="BZ21" s="77"/>
+      <c r="BZ21" s="63"/>
       <c r="CA21" s="1"/>
       <c r="CB21" s="1"/>
       <c r="CC21" s="1"/>
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="38"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="90" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3615,175 +3622,175 @@
       <c r="F22" s="26">
         <v>44343</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="77"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="77"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="59"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="88"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="74"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="88"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="74"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="91"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="77"/>
       <c r="AP22" s="2"/>
-      <c r="AQ22" s="77"/>
+      <c r="AQ22" s="63"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="77"/>
+      <c r="AX22" s="63"/>
       <c r="AY22" s="1"/>
       <c r="AZ22" s="19"/>
-      <c r="BA22" s="59"/>
+      <c r="BA22" s="45"/>
       <c r="BB22" s="14"/>
-      <c r="BC22" s="85"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="88"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="71"/>
+      <c r="BE22" s="74"/>
       <c r="BF22" s="14"/>
       <c r="BG22" s="14"/>
       <c r="BH22" s="14"/>
       <c r="BI22" s="14"/>
-      <c r="BJ22" s="85"/>
-      <c r="BK22" s="85"/>
-      <c r="BL22" s="88"/>
+      <c r="BJ22" s="71"/>
+      <c r="BK22" s="71"/>
+      <c r="BL22" s="74"/>
       <c r="BM22" s="14"/>
       <c r="BN22" s="14"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="2"/>
       <c r="BR22" s="2"/>
-      <c r="BS22" s="77"/>
+      <c r="BS22" s="63"/>
       <c r="BT22" s="1"/>
       <c r="BU22" s="1"/>
       <c r="BV22" s="2"/>
       <c r="BW22" s="2"/>
       <c r="BX22" s="2"/>
       <c r="BY22" s="2"/>
-      <c r="BZ22" s="77"/>
+      <c r="BZ22" s="63"/>
       <c r="CA22" s="1"/>
       <c r="CB22" s="1"/>
       <c r="CC22" s="1"/>
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="38"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="71">
+      <c r="G23" s="57">
         <v>0</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="77"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="77"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="59"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="45"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="88"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="74"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="88"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="74"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="91"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="77"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="77"/>
+      <c r="AQ23" s="63"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="AX23" s="77"/>
+      <c r="AX23" s="63"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="19"/>
-      <c r="BA23" s="59"/>
+      <c r="BA23" s="45"/>
       <c r="BB23" s="14"/>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="88"/>
+      <c r="BC23" s="71"/>
+      <c r="BD23" s="71"/>
+      <c r="BE23" s="74"/>
       <c r="BF23" s="14"/>
       <c r="BG23" s="14"/>
       <c r="BH23" s="14"/>
       <c r="BI23" s="14"/>
-      <c r="BJ23" s="85"/>
-      <c r="BK23" s="85"/>
-      <c r="BL23" s="88"/>
+      <c r="BJ23" s="71"/>
+      <c r="BK23" s="71"/>
+      <c r="BL23" s="74"/>
       <c r="BM23" s="14"/>
       <c r="BN23" s="14"/>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="2"/>
       <c r="BR23" s="2"/>
-      <c r="BS23" s="77"/>
+      <c r="BS23" s="63"/>
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
       <c r="BV23" s="2"/>
       <c r="BW23" s="2"/>
       <c r="BX23" s="2"/>
       <c r="BY23" s="2"/>
-      <c r="BZ23" s="77"/>
+      <c r="BZ23" s="63"/>
       <c r="CA23" s="1"/>
       <c r="CB23" s="1"/>
       <c r="CC23" s="1"/>
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="38"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="84" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3795,175 +3802,175 @@
       <c r="F24" s="26">
         <v>44343</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="77"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="77"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="59"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="45"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="88"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="74"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="88"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="74"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="91"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="77"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="77"/>
+      <c r="AQ24" s="63"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="AX24" s="77"/>
+      <c r="AX24" s="63"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="19"/>
-      <c r="BA24" s="59"/>
+      <c r="BA24" s="45"/>
       <c r="BB24" s="14"/>
-      <c r="BC24" s="85"/>
-      <c r="BD24" s="85"/>
-      <c r="BE24" s="88"/>
+      <c r="BC24" s="71"/>
+      <c r="BD24" s="71"/>
+      <c r="BE24" s="74"/>
       <c r="BF24" s="14"/>
       <c r="BG24" s="14"/>
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
-      <c r="BJ24" s="85"/>
-      <c r="BK24" s="85"/>
-      <c r="BL24" s="88"/>
+      <c r="BJ24" s="71"/>
+      <c r="BK24" s="71"/>
+      <c r="BL24" s="74"/>
       <c r="BM24" s="14"/>
       <c r="BN24" s="14"/>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
-      <c r="BS24" s="77"/>
+      <c r="BS24" s="63"/>
       <c r="BT24" s="1"/>
       <c r="BU24" s="1"/>
       <c r="BV24" s="2"/>
       <c r="BW24" s="2"/>
       <c r="BX24" s="2"/>
       <c r="BY24" s="2"/>
-      <c r="BZ24" s="77"/>
+      <c r="BZ24" s="63"/>
       <c r="CA24" s="1"/>
       <c r="CB24" s="1"/>
       <c r="CC24" s="1"/>
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="38"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="71">
+      <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="98"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="77"/>
+      <c r="O25" s="63"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="77"/>
+      <c r="S25" s="63"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="59"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="45"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="88"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="74"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="88"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="74"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="91"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="77"/>
       <c r="AP25" s="2"/>
-      <c r="AQ25" s="77"/>
+      <c r="AQ25" s="63"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="AX25" s="77"/>
+      <c r="AX25" s="63"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="19"/>
-      <c r="BA25" s="59"/>
+      <c r="BA25" s="45"/>
       <c r="BB25" s="14"/>
-      <c r="BC25" s="85"/>
-      <c r="BD25" s="85"/>
-      <c r="BE25" s="88"/>
+      <c r="BC25" s="71"/>
+      <c r="BD25" s="71"/>
+      <c r="BE25" s="74"/>
       <c r="BF25" s="14"/>
       <c r="BG25" s="14"/>
       <c r="BH25" s="14"/>
       <c r="BI25" s="14"/>
-      <c r="BJ25" s="85"/>
-      <c r="BK25" s="85"/>
-      <c r="BL25" s="88"/>
+      <c r="BJ25" s="71"/>
+      <c r="BK25" s="71"/>
+      <c r="BL25" s="74"/>
       <c r="BM25" s="14"/>
       <c r="BN25" s="14"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="2"/>
       <c r="BR25" s="2"/>
-      <c r="BS25" s="77"/>
+      <c r="BS25" s="63"/>
       <c r="BT25" s="1"/>
       <c r="BU25" s="1"/>
       <c r="BV25" s="2"/>
       <c r="BW25" s="2"/>
       <c r="BX25" s="2"/>
       <c r="BY25" s="2"/>
-      <c r="BZ25" s="77"/>
+      <c r="BZ25" s="63"/>
       <c r="CA25" s="1"/>
       <c r="CB25" s="1"/>
       <c r="CC25" s="1"/>
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="38"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="94"/>
+      <c r="C26" s="84" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3975,177 +3982,177 @@
       <c r="F26" s="26">
         <v>44343</v>
       </c>
-      <c r="G26" s="72" t="s">
+      <c r="G26" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="77"/>
+      <c r="O26" s="63"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="77"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="59"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="45"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="88"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="74"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="88"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="74"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="91"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="77"/>
       <c r="AP26" s="2"/>
-      <c r="AQ26" s="77"/>
+      <c r="AQ26" s="63"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="77"/>
+      <c r="AX26" s="63"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="19"/>
-      <c r="BA26" s="59"/>
+      <c r="BA26" s="45"/>
       <c r="BB26" s="14"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="88"/>
+      <c r="BC26" s="71"/>
+      <c r="BD26" s="71"/>
+      <c r="BE26" s="74"/>
       <c r="BF26" s="14"/>
       <c r="BG26" s="14"/>
       <c r="BH26" s="14"/>
       <c r="BI26" s="14"/>
-      <c r="BJ26" s="85"/>
-      <c r="BK26" s="85"/>
-      <c r="BL26" s="88"/>
+      <c r="BJ26" s="71"/>
+      <c r="BK26" s="71"/>
+      <c r="BL26" s="74"/>
       <c r="BM26" s="14"/>
       <c r="BN26" s="14"/>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="2"/>
       <c r="BR26" s="2"/>
-      <c r="BS26" s="77"/>
+      <c r="BS26" s="63"/>
       <c r="BT26" s="1"/>
       <c r="BU26" s="1"/>
       <c r="BV26" s="2"/>
       <c r="BW26" s="2"/>
       <c r="BX26" s="2"/>
       <c r="BY26" s="2"/>
-      <c r="BZ26" s="77"/>
+      <c r="BZ26" s="63"/>
       <c r="CA26" s="1"/>
       <c r="CB26" s="1"/>
       <c r="CC26" s="1"/>
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="39"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="71">
+      <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="77"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
-      <c r="S27" s="77"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="59"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="45"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="88"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="74"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="88"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="74"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="91"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="77"/>
       <c r="AP27" s="2"/>
-      <c r="AQ27" s="77"/>
+      <c r="AQ27" s="63"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="AX27" s="77"/>
+      <c r="AX27" s="63"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="19"/>
-      <c r="BA27" s="59"/>
+      <c r="BA27" s="45"/>
       <c r="BB27" s="14"/>
-      <c r="BC27" s="85"/>
-      <c r="BD27" s="85"/>
-      <c r="BE27" s="88"/>
+      <c r="BC27" s="71"/>
+      <c r="BD27" s="71"/>
+      <c r="BE27" s="74"/>
       <c r="BF27" s="14"/>
       <c r="BG27" s="14"/>
       <c r="BH27" s="14"/>
       <c r="BI27" s="14"/>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="85"/>
-      <c r="BL27" s="88"/>
+      <c r="BJ27" s="71"/>
+      <c r="BK27" s="71"/>
+      <c r="BL27" s="74"/>
       <c r="BM27" s="14"/>
       <c r="BN27" s="14"/>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="2"/>
       <c r="BR27" s="2"/>
-      <c r="BS27" s="77"/>
+      <c r="BS27" s="63"/>
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
       <c r="BV27" s="2"/>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
       <c r="BY27" s="2"/>
-      <c r="BZ27" s="77"/>
+      <c r="BZ27" s="63"/>
       <c r="CA27" s="1"/>
       <c r="CB27" s="1"/>
       <c r="CC27" s="1"/>
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="84" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4157,177 +4164,177 @@
       <c r="F28" s="26">
         <v>44348</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H28" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="54"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="77"/>
+      <c r="O28" s="63"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="77"/>
+      <c r="S28" s="63"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="60"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="46"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="88"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="74"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="88"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="74"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="91"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="77"/>
       <c r="AP28" s="2"/>
-      <c r="AQ28" s="77"/>
+      <c r="AQ28" s="63"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="AX28" s="77"/>
+      <c r="AX28" s="63"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="19"/>
-      <c r="BA28" s="59"/>
+      <c r="BA28" s="45"/>
       <c r="BB28" s="14"/>
-      <c r="BC28" s="85"/>
-      <c r="BD28" s="85"/>
-      <c r="BE28" s="88"/>
+      <c r="BC28" s="71"/>
+      <c r="BD28" s="71"/>
+      <c r="BE28" s="74"/>
       <c r="BF28" s="14"/>
       <c r="BG28" s="14"/>
       <c r="BH28" s="14"/>
       <c r="BI28" s="14"/>
-      <c r="BJ28" s="85"/>
-      <c r="BK28" s="85"/>
-      <c r="BL28" s="88"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="71"/>
+      <c r="BL28" s="74"/>
       <c r="BM28" s="14"/>
       <c r="BN28" s="14"/>
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="2"/>
       <c r="BR28" s="2"/>
-      <c r="BS28" s="77"/>
+      <c r="BS28" s="63"/>
       <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
       <c r="BV28" s="2"/>
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
       <c r="BY28" s="2"/>
-      <c r="BZ28" s="77"/>
+      <c r="BZ28" s="63"/>
       <c r="CA28" s="1"/>
       <c r="CB28" s="1"/>
       <c r="CC28" s="1"/>
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="71">
+      <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="98"/>
-      <c r="I29" s="54"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="77"/>
+      <c r="O29" s="63"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="77"/>
+      <c r="S29" s="63"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="59"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="45"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="88"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="74"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="88"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="74"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="91"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="77"/>
       <c r="AP29" s="2"/>
-      <c r="AQ29" s="77"/>
+      <c r="AQ29" s="63"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="AX29" s="77"/>
+      <c r="AX29" s="63"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="19"/>
-      <c r="BA29" s="59"/>
+      <c r="BA29" s="45"/>
       <c r="BB29" s="14"/>
-      <c r="BC29" s="85"/>
-      <c r="BD29" s="85"/>
-      <c r="BE29" s="88"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="71"/>
+      <c r="BE29" s="74"/>
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
       <c r="BH29" s="14"/>
       <c r="BI29" s="14"/>
-      <c r="BJ29" s="85"/>
-      <c r="BK29" s="85"/>
-      <c r="BL29" s="88"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="71"/>
+      <c r="BL29" s="74"/>
       <c r="BM29" s="14"/>
       <c r="BN29" s="14"/>
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="2"/>
       <c r="BR29" s="2"/>
-      <c r="BS29" s="77"/>
+      <c r="BS29" s="63"/>
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
-      <c r="BZ29" s="77"/>
+      <c r="BZ29" s="63"/>
       <c r="CA29" s="1"/>
       <c r="CB29" s="1"/>
       <c r="CC29" s="1"/>
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="36"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="84" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4339,175 +4346,175 @@
       <c r="F30" s="26">
         <v>44348</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="98"/>
-      <c r="I30" s="54"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="77"/>
+      <c r="O30" s="63"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
-      <c r="S30" s="77"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="60"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="88"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="74"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="88"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="74"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="91"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="77"/>
       <c r="AP30" s="2"/>
-      <c r="AQ30" s="77"/>
+      <c r="AQ30" s="63"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="AX30" s="77"/>
+      <c r="AX30" s="63"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="19"/>
-      <c r="BA30" s="59"/>
+      <c r="BA30" s="45"/>
       <c r="BB30" s="14"/>
-      <c r="BC30" s="85"/>
-      <c r="BD30" s="85"/>
-      <c r="BE30" s="88"/>
+      <c r="BC30" s="71"/>
+      <c r="BD30" s="71"/>
+      <c r="BE30" s="74"/>
       <c r="BF30" s="14"/>
       <c r="BG30" s="14"/>
       <c r="BH30" s="14"/>
       <c r="BI30" s="14"/>
-      <c r="BJ30" s="85"/>
-      <c r="BK30" s="85"/>
-      <c r="BL30" s="88"/>
+      <c r="BJ30" s="71"/>
+      <c r="BK30" s="71"/>
+      <c r="BL30" s="74"/>
       <c r="BM30" s="14"/>
       <c r="BN30" s="14"/>
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="2"/>
       <c r="BR30" s="2"/>
-      <c r="BS30" s="77"/>
+      <c r="BS30" s="63"/>
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
       <c r="BV30" s="2"/>
       <c r="BW30" s="2"/>
       <c r="BX30" s="2"/>
       <c r="BY30" s="2"/>
-      <c r="BZ30" s="77"/>
+      <c r="BZ30" s="63"/>
       <c r="CA30" s="1"/>
       <c r="CB30" s="1"/>
       <c r="CC30" s="1"/>
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="36"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="71">
+      <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="54"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="77"/>
+      <c r="O31" s="63"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
-      <c r="S31" s="77"/>
+      <c r="S31" s="63"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="59"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="45"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="88"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="74"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="85"/>
-      <c r="AJ31" s="88"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="74"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="91"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="77"/>
       <c r="AP31" s="2"/>
-      <c r="AQ31" s="77"/>
+      <c r="AQ31" s="63"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="AX31" s="77"/>
+      <c r="AX31" s="63"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="19"/>
-      <c r="BA31" s="59"/>
+      <c r="BA31" s="45"/>
       <c r="BB31" s="14"/>
-      <c r="BC31" s="85"/>
-      <c r="BD31" s="85"/>
-      <c r="BE31" s="88"/>
+      <c r="BC31" s="71"/>
+      <c r="BD31" s="71"/>
+      <c r="BE31" s="74"/>
       <c r="BF31" s="14"/>
       <c r="BG31" s="14"/>
       <c r="BH31" s="14"/>
       <c r="BI31" s="14"/>
-      <c r="BJ31" s="85"/>
-      <c r="BK31" s="85"/>
-      <c r="BL31" s="88"/>
+      <c r="BJ31" s="71"/>
+      <c r="BK31" s="71"/>
+      <c r="BL31" s="74"/>
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="2"/>
       <c r="BR31" s="2"/>
-      <c r="BS31" s="77"/>
+      <c r="BS31" s="63"/>
       <c r="BT31" s="1"/>
       <c r="BU31" s="1"/>
       <c r="BV31" s="2"/>
       <c r="BW31" s="2"/>
       <c r="BX31" s="2"/>
       <c r="BY31" s="2"/>
-      <c r="BZ31" s="77"/>
+      <c r="BZ31" s="63"/>
       <c r="CA31" s="1"/>
       <c r="CB31" s="1"/>
       <c r="CC31" s="1"/>
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="36"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="83"/>
+      <c r="C32" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4519,175 +4526,175 @@
       <c r="F32" s="26">
         <v>44349</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="98"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="77"/>
+      <c r="O32" s="63"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
-      <c r="S32" s="77"/>
+      <c r="S32" s="63"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="60"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="46"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="88"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="74"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="88"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="74"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
-      <c r="AN32" s="77"/>
-      <c r="AO32" s="91"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="77"/>
       <c r="AP32" s="2"/>
-      <c r="AQ32" s="77"/>
+      <c r="AQ32" s="63"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="AX32" s="77"/>
+      <c r="AX32" s="63"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="19"/>
-      <c r="BA32" s="59"/>
+      <c r="BA32" s="45"/>
       <c r="BB32" s="14"/>
-      <c r="BC32" s="85"/>
-      <c r="BD32" s="85"/>
-      <c r="BE32" s="88"/>
+      <c r="BC32" s="71"/>
+      <c r="BD32" s="71"/>
+      <c r="BE32" s="74"/>
       <c r="BF32" s="14"/>
       <c r="BG32" s="14"/>
       <c r="BH32" s="14"/>
       <c r="BI32" s="14"/>
-      <c r="BJ32" s="85"/>
-      <c r="BK32" s="85"/>
-      <c r="BL32" s="88"/>
+      <c r="BJ32" s="71"/>
+      <c r="BK32" s="71"/>
+      <c r="BL32" s="74"/>
       <c r="BM32" s="14"/>
       <c r="BN32" s="14"/>
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="2"/>
       <c r="BR32" s="2"/>
-      <c r="BS32" s="77"/>
+      <c r="BS32" s="63"/>
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
       <c r="BV32" s="2"/>
       <c r="BW32" s="2"/>
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
-      <c r="BZ32" s="77"/>
+      <c r="BZ32" s="63"/>
       <c r="CA32" s="1"/>
       <c r="CB32" s="1"/>
       <c r="CC32" s="1"/>
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="36"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="71">
+      <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="77"/>
+      <c r="O33" s="63"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
-      <c r="S33" s="77"/>
+      <c r="S33" s="63"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="59"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="45"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="88"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="74"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="88"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="74"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="91"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="77"/>
       <c r="AP33" s="2"/>
-      <c r="AQ33" s="77"/>
+      <c r="AQ33" s="63"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="AX33" s="77"/>
+      <c r="AX33" s="63"/>
       <c r="AY33" s="1"/>
       <c r="AZ33" s="19"/>
-      <c r="BA33" s="59"/>
+      <c r="BA33" s="45"/>
       <c r="BB33" s="14"/>
-      <c r="BC33" s="85"/>
-      <c r="BD33" s="85"/>
-      <c r="BE33" s="88"/>
+      <c r="BC33" s="71"/>
+      <c r="BD33" s="71"/>
+      <c r="BE33" s="74"/>
       <c r="BF33" s="14"/>
       <c r="BG33" s="14"/>
       <c r="BH33" s="14"/>
       <c r="BI33" s="14"/>
-      <c r="BJ33" s="85"/>
-      <c r="BK33" s="85"/>
-      <c r="BL33" s="88"/>
+      <c r="BJ33" s="71"/>
+      <c r="BK33" s="71"/>
+      <c r="BL33" s="74"/>
       <c r="BM33" s="14"/>
       <c r="BN33" s="14"/>
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="2"/>
-      <c r="BS33" s="77"/>
+      <c r="BS33" s="63"/>
       <c r="BT33" s="1"/>
       <c r="BU33" s="1"/>
       <c r="BV33" s="2"/>
       <c r="BW33" s="2"/>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2"/>
-      <c r="BZ33" s="77"/>
+      <c r="BZ33" s="63"/>
       <c r="CA33" s="1"/>
       <c r="CB33" s="1"/>
       <c r="CC33" s="1"/>
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="36"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4699,177 +4706,177 @@
       <c r="F34" s="26">
         <v>44350</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="96" t="s">
+      <c r="H34" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="77"/>
+      <c r="O34" s="63"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="77"/>
+      <c r="S34" s="63"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="61"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="47"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="77"/>
+      <c r="AC34" s="63"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="77"/>
+      <c r="AG34" s="63"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="77"/>
+      <c r="AJ34" s="63"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="91"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="77"/>
       <c r="AP34" s="2"/>
-      <c r="AQ34" s="77"/>
+      <c r="AQ34" s="63"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
-      <c r="AX34" s="77"/>
+      <c r="AX34" s="63"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="19"/>
-      <c r="BA34" s="54"/>
+      <c r="BA34" s="41"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
-      <c r="BE34" s="77"/>
+      <c r="BE34" s="63"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
-      <c r="BL34" s="77"/>
+      <c r="BL34" s="63"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="2"/>
       <c r="BR34" s="2"/>
-      <c r="BS34" s="77"/>
+      <c r="BS34" s="63"/>
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
       <c r="BV34" s="2"/>
       <c r="BW34" s="2"/>
       <c r="BX34" s="2"/>
       <c r="BY34" s="2"/>
-      <c r="BZ34" s="77"/>
+      <c r="BZ34" s="63"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
       <c r="CC34" s="1"/>
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="36"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="71">
+      <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="77"/>
+      <c r="O35" s="63"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="77"/>
+      <c r="S35" s="63"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="54"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="41"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="77"/>
+      <c r="AC35" s="63"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="77"/>
+      <c r="AG35" s="63"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="77"/>
+      <c r="AJ35" s="63"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="91"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="77"/>
       <c r="AP35" s="2"/>
-      <c r="AQ35" s="77"/>
+      <c r="AQ35" s="63"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
-      <c r="AX35" s="77"/>
+      <c r="AX35" s="63"/>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="19"/>
-      <c r="BA35" s="54"/>
+      <c r="BA35" s="41"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="2"/>
       <c r="BD35" s="2"/>
-      <c r="BE35" s="77"/>
+      <c r="BE35" s="63"/>
       <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="2"/>
       <c r="BK35" s="2"/>
-      <c r="BL35" s="77"/>
+      <c r="BL35" s="63"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="2"/>
       <c r="BR35" s="2"/>
-      <c r="BS35" s="77"/>
+      <c r="BS35" s="63"/>
       <c r="BT35" s="1"/>
       <c r="BU35" s="1"/>
       <c r="BV35" s="2"/>
       <c r="BW35" s="2"/>
       <c r="BX35" s="2"/>
       <c r="BY35" s="2"/>
-      <c r="BZ35" s="77"/>
+      <c r="BZ35" s="63"/>
       <c r="CA35" s="1"/>
       <c r="CB35" s="1"/>
       <c r="CC35" s="1"/>
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="36"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="83"/>
+      <c r="C36" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4881,175 +4888,175 @@
       <c r="F36" s="26">
         <v>44351</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="77"/>
+      <c r="O36" s="63"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
-      <c r="S36" s="77"/>
+      <c r="S36" s="63"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="59"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="45"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="88"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="74"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="88"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="74"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
-      <c r="AN36" s="77"/>
-      <c r="AO36" s="91"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="77"/>
       <c r="AP36" s="2"/>
-      <c r="AQ36" s="77"/>
+      <c r="AQ36" s="63"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="AX36" s="77"/>
+      <c r="AX36" s="63"/>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="19"/>
-      <c r="BA36" s="59"/>
+      <c r="BA36" s="45"/>
       <c r="BB36" s="14"/>
-      <c r="BC36" s="85"/>
-      <c r="BD36" s="85"/>
-      <c r="BE36" s="88"/>
+      <c r="BC36" s="71"/>
+      <c r="BD36" s="71"/>
+      <c r="BE36" s="74"/>
       <c r="BF36" s="14"/>
       <c r="BG36" s="14"/>
       <c r="BH36" s="14"/>
       <c r="BI36" s="14"/>
-      <c r="BJ36" s="85"/>
-      <c r="BK36" s="85"/>
-      <c r="BL36" s="88"/>
+      <c r="BJ36" s="71"/>
+      <c r="BK36" s="71"/>
+      <c r="BL36" s="74"/>
       <c r="BM36" s="14"/>
       <c r="BN36" s="14"/>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="2"/>
       <c r="BR36" s="2"/>
-      <c r="BS36" s="77"/>
+      <c r="BS36" s="63"/>
       <c r="BT36" s="1"/>
       <c r="BU36" s="1"/>
       <c r="BV36" s="2"/>
       <c r="BW36" s="2"/>
       <c r="BX36" s="2"/>
       <c r="BY36" s="2"/>
-      <c r="BZ36" s="77"/>
+      <c r="BZ36" s="63"/>
       <c r="CA36" s="1"/>
       <c r="CB36" s="1"/>
       <c r="CC36" s="1"/>
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="36"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="71">
+      <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="77"/>
+      <c r="O37" s="63"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
-      <c r="S37" s="77"/>
+      <c r="S37" s="63"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="59"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="45"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="17"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="88"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="74"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="85"/>
-      <c r="AI37" s="85"/>
-      <c r="AJ37" s="88"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="71"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="74"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
-      <c r="AN37" s="77"/>
-      <c r="AO37" s="91"/>
+      <c r="AN37" s="63"/>
+      <c r="AO37" s="77"/>
       <c r="AP37" s="2"/>
-      <c r="AQ37" s="77"/>
+      <c r="AQ37" s="63"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="AX37" s="77"/>
+      <c r="AX37" s="63"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="19"/>
-      <c r="BA37" s="59"/>
+      <c r="BA37" s="45"/>
       <c r="BB37" s="14"/>
-      <c r="BC37" s="85"/>
-      <c r="BD37" s="85"/>
-      <c r="BE37" s="88"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="71"/>
+      <c r="BE37" s="74"/>
       <c r="BF37" s="14"/>
       <c r="BG37" s="14"/>
       <c r="BH37" s="14"/>
       <c r="BI37" s="14"/>
-      <c r="BJ37" s="85"/>
-      <c r="BK37" s="85"/>
-      <c r="BL37" s="88"/>
+      <c r="BJ37" s="71"/>
+      <c r="BK37" s="71"/>
+      <c r="BL37" s="74"/>
       <c r="BM37" s="14"/>
       <c r="BN37" s="14"/>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="2"/>
       <c r="BR37" s="2"/>
-      <c r="BS37" s="77"/>
+      <c r="BS37" s="63"/>
       <c r="BT37" s="1"/>
       <c r="BU37" s="1"/>
       <c r="BV37" s="2"/>
       <c r="BW37" s="2"/>
       <c r="BX37" s="2"/>
       <c r="BY37" s="2"/>
-      <c r="BZ37" s="77"/>
+      <c r="BZ37" s="63"/>
       <c r="CA37" s="1"/>
       <c r="CB37" s="1"/>
       <c r="CC37" s="1"/>
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="36"/>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="84" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5061,175 +5068,175 @@
       <c r="F38" s="26">
         <v>44351</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="54"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="77"/>
+      <c r="O38" s="63"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
-      <c r="S38" s="77"/>
+      <c r="S38" s="63"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="59"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="45"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="85"/>
-      <c r="AC38" s="88"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="74"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="85"/>
-      <c r="AI38" s="85"/>
-      <c r="AJ38" s="88"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="71"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="74"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
-      <c r="AN38" s="77"/>
-      <c r="AO38" s="91"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="77"/>
       <c r="AP38" s="2"/>
-      <c r="AQ38" s="77"/>
+      <c r="AQ38" s="63"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="AX38" s="77"/>
+      <c r="AX38" s="63"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="19"/>
-      <c r="BA38" s="59"/>
+      <c r="BA38" s="45"/>
       <c r="BB38" s="14"/>
-      <c r="BC38" s="85"/>
-      <c r="BD38" s="85"/>
-      <c r="BE38" s="88"/>
+      <c r="BC38" s="71"/>
+      <c r="BD38" s="71"/>
+      <c r="BE38" s="74"/>
       <c r="BF38" s="14"/>
       <c r="BG38" s="14"/>
       <c r="BH38" s="14"/>
       <c r="BI38" s="14"/>
-      <c r="BJ38" s="85"/>
-      <c r="BK38" s="85"/>
-      <c r="BL38" s="88"/>
+      <c r="BJ38" s="71"/>
+      <c r="BK38" s="71"/>
+      <c r="BL38" s="74"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="2"/>
       <c r="BR38" s="2"/>
-      <c r="BS38" s="77"/>
+      <c r="BS38" s="63"/>
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
       <c r="BV38" s="2"/>
       <c r="BW38" s="2"/>
       <c r="BX38" s="2"/>
       <c r="BY38" s="2"/>
-      <c r="BZ38" s="77"/>
+      <c r="BZ38" s="63"/>
       <c r="CA38" s="1"/>
       <c r="CB38" s="1"/>
       <c r="CC38" s="1"/>
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="71">
+      <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="95"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="77"/>
+      <c r="O39" s="63"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
-      <c r="S39" s="77"/>
+      <c r="S39" s="63"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="59"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="45"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="85"/>
-      <c r="AC39" s="88"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="74"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="85"/>
-      <c r="AI39" s="85"/>
-      <c r="AJ39" s="88"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="74"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="91"/>
+      <c r="AN39" s="63"/>
+      <c r="AO39" s="77"/>
       <c r="AP39" s="2"/>
-      <c r="AQ39" s="77"/>
+      <c r="AQ39" s="63"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="AX39" s="77"/>
+      <c r="AX39" s="63"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="19"/>
-      <c r="BA39" s="59"/>
+      <c r="BA39" s="45"/>
       <c r="BB39" s="14"/>
-      <c r="BC39" s="85"/>
-      <c r="BD39" s="85"/>
-      <c r="BE39" s="88"/>
+      <c r="BC39" s="71"/>
+      <c r="BD39" s="71"/>
+      <c r="BE39" s="74"/>
       <c r="BF39" s="14"/>
       <c r="BG39" s="14"/>
       <c r="BH39" s="14"/>
       <c r="BI39" s="14"/>
-      <c r="BJ39" s="85"/>
-      <c r="BK39" s="85"/>
-      <c r="BL39" s="88"/>
+      <c r="BJ39" s="71"/>
+      <c r="BK39" s="71"/>
+      <c r="BL39" s="74"/>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="2"/>
       <c r="BR39" s="2"/>
-      <c r="BS39" s="77"/>
+      <c r="BS39" s="63"/>
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
       <c r="BV39" s="2"/>
       <c r="BW39" s="2"/>
       <c r="BX39" s="2"/>
       <c r="BY39" s="2"/>
-      <c r="BZ39" s="77"/>
+      <c r="BZ39" s="63"/>
       <c r="CA39" s="1"/>
       <c r="CB39" s="1"/>
       <c r="CC39" s="1"/>
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="36"/>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="84" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5241,177 +5248,177 @@
       <c r="F40" s="26">
         <v>44356</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="96" t="s">
+      <c r="H40" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="77"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="77"/>
+      <c r="S40" s="63"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="54"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="41"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="77"/>
+      <c r="AC40" s="63"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
-      <c r="AG40" s="77"/>
+      <c r="AG40" s="63"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
-      <c r="AJ40" s="77"/>
+      <c r="AJ40" s="63"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
-      <c r="AN40" s="77"/>
-      <c r="AO40" s="91"/>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="77"/>
       <c r="AP40" s="2"/>
-      <c r="AQ40" s="77"/>
+      <c r="AQ40" s="63"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="AX40" s="77"/>
+      <c r="AX40" s="63"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="19"/>
-      <c r="BA40" s="54"/>
+      <c r="BA40" s="41"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
-      <c r="BE40" s="77"/>
+      <c r="BE40" s="63"/>
       <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
-      <c r="BL40" s="77"/>
+      <c r="BL40" s="63"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="2"/>
       <c r="BR40" s="2"/>
-      <c r="BS40" s="77"/>
+      <c r="BS40" s="63"/>
       <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
       <c r="BV40" s="2"/>
       <c r="BW40" s="2"/>
       <c r="BX40" s="2"/>
       <c r="BY40" s="2"/>
-      <c r="BZ40" s="77"/>
+      <c r="BZ40" s="63"/>
       <c r="CA40" s="1"/>
       <c r="CB40" s="1"/>
       <c r="CC40" s="1"/>
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="36"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="71">
+      <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="98"/>
-      <c r="I41" s="54"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="77"/>
+      <c r="O41" s="63"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="77"/>
+      <c r="S41" s="63"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="54"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="41"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
-      <c r="AC41" s="77"/>
+      <c r="AC41" s="63"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="77"/>
+      <c r="AG41" s="63"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="77"/>
+      <c r="AJ41" s="63"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
-      <c r="AN41" s="77"/>
-      <c r="AO41" s="91"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="77"/>
       <c r="AP41" s="2"/>
-      <c r="AQ41" s="77"/>
+      <c r="AQ41" s="63"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
-      <c r="AX41" s="77"/>
+      <c r="AX41" s="63"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="19"/>
-      <c r="BA41" s="54"/>
+      <c r="BA41" s="41"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="2"/>
       <c r="BD41" s="2"/>
-      <c r="BE41" s="77"/>
+      <c r="BE41" s="63"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="2"/>
       <c r="BK41" s="2"/>
-      <c r="BL41" s="77"/>
+      <c r="BL41" s="63"/>
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="2"/>
       <c r="BR41" s="2"/>
-      <c r="BS41" s="77"/>
+      <c r="BS41" s="63"/>
       <c r="BT41" s="1"/>
       <c r="BU41" s="1"/>
       <c r="BV41" s="2"/>
       <c r="BW41" s="2"/>
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
-      <c r="BZ41" s="77"/>
+      <c r="BZ41" s="63"/>
       <c r="CA41" s="1"/>
       <c r="CB41" s="1"/>
       <c r="CC41" s="1"/>
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="36"/>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="84" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5423,175 +5430,175 @@
       <c r="F42" s="26">
         <v>44362</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G42" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="98"/>
-      <c r="I42" s="54"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="77"/>
+      <c r="O42" s="63"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="77"/>
+      <c r="S42" s="63"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="59"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="45"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="88"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="74"/>
       <c r="AD42" s="14"/>
       <c r="AE42" s="14"/>
       <c r="AF42" s="6"/>
-      <c r="AG42" s="77"/>
+      <c r="AG42" s="63"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="77"/>
+      <c r="AJ42" s="63"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
-      <c r="AN42" s="77"/>
-      <c r="AO42" s="91"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="77"/>
       <c r="AP42" s="2"/>
-      <c r="AQ42" s="77"/>
+      <c r="AQ42" s="63"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
-      <c r="AX42" s="77"/>
+      <c r="AX42" s="63"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="19"/>
-      <c r="BA42" s="59"/>
+      <c r="BA42" s="45"/>
       <c r="BB42" s="14"/>
-      <c r="BC42" s="85"/>
-      <c r="BD42" s="85"/>
-      <c r="BE42" s="88"/>
+      <c r="BC42" s="71"/>
+      <c r="BD42" s="71"/>
+      <c r="BE42" s="74"/>
       <c r="BF42" s="14"/>
       <c r="BG42" s="14"/>
       <c r="BH42" s="14"/>
       <c r="BI42" s="14"/>
-      <c r="BJ42" s="85"/>
-      <c r="BK42" s="85"/>
-      <c r="BL42" s="88"/>
+      <c r="BJ42" s="71"/>
+      <c r="BK42" s="71"/>
+      <c r="BL42" s="74"/>
       <c r="BM42" s="14"/>
       <c r="BN42" s="14"/>
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="2"/>
       <c r="BR42" s="2"/>
-      <c r="BS42" s="77"/>
+      <c r="BS42" s="63"/>
       <c r="BT42" s="1"/>
       <c r="BU42" s="1"/>
       <c r="BV42" s="2"/>
       <c r="BW42" s="2"/>
       <c r="BX42" s="2"/>
       <c r="BY42" s="2"/>
-      <c r="BZ42" s="77"/>
+      <c r="BZ42" s="63"/>
       <c r="CA42" s="1"/>
       <c r="CB42" s="1"/>
       <c r="CC42" s="1"/>
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="36"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="71">
+      <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="77"/>
+      <c r="O43" s="63"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
-      <c r="S43" s="77"/>
+      <c r="S43" s="63"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="59"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="45"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="88"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="74"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
       <c r="AF43" s="14"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="85"/>
-      <c r="AJ43" s="88"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="71"/>
+      <c r="AI43" s="71"/>
+      <c r="AJ43" s="74"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
-      <c r="AN43" s="77"/>
-      <c r="AO43" s="91"/>
+      <c r="AN43" s="63"/>
+      <c r="AO43" s="77"/>
       <c r="AP43" s="2"/>
-      <c r="AQ43" s="77"/>
+      <c r="AQ43" s="63"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
       <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
-      <c r="AX43" s="77"/>
+      <c r="AX43" s="63"/>
       <c r="AY43" s="1"/>
       <c r="AZ43" s="19"/>
-      <c r="BA43" s="59"/>
+      <c r="BA43" s="45"/>
       <c r="BB43" s="14"/>
-      <c r="BC43" s="85"/>
-      <c r="BD43" s="85"/>
-      <c r="BE43" s="88"/>
+      <c r="BC43" s="71"/>
+      <c r="BD43" s="71"/>
+      <c r="BE43" s="74"/>
       <c r="BF43" s="14"/>
       <c r="BG43" s="14"/>
       <c r="BH43" s="14"/>
       <c r="BI43" s="14"/>
-      <c r="BJ43" s="85"/>
-      <c r="BK43" s="85"/>
-      <c r="BL43" s="88"/>
+      <c r="BJ43" s="71"/>
+      <c r="BK43" s="71"/>
+      <c r="BL43" s="74"/>
       <c r="BM43" s="14"/>
       <c r="BN43" s="14"/>
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="2"/>
       <c r="BR43" s="2"/>
-      <c r="BS43" s="77"/>
+      <c r="BS43" s="63"/>
       <c r="BT43" s="1"/>
       <c r="BU43" s="1"/>
       <c r="BV43" s="2"/>
       <c r="BW43" s="2"/>
       <c r="BX43" s="2"/>
       <c r="BY43" s="2"/>
-      <c r="BZ43" s="77"/>
+      <c r="BZ43" s="63"/>
       <c r="CA43" s="1"/>
       <c r="CB43" s="1"/>
       <c r="CC43" s="1"/>
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="36"/>
-      <c r="C44" s="34" t="s">
+      <c r="B44" s="83"/>
+      <c r="C44" s="84" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5603,177 +5610,177 @@
       <c r="F44" s="26">
         <v>44362</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G44" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="54"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="77"/>
+      <c r="O44" s="63"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
-      <c r="S44" s="77"/>
+      <c r="S44" s="63"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="59"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="45"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="88"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="74"/>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="6"/>
-      <c r="AG44" s="77"/>
+      <c r="AG44" s="63"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="77"/>
+      <c r="AJ44" s="63"/>
       <c r="AK44" s="6"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
-      <c r="AN44" s="77"/>
-      <c r="AO44" s="91"/>
+      <c r="AN44" s="63"/>
+      <c r="AO44" s="77"/>
       <c r="AP44" s="2"/>
-      <c r="AQ44" s="77"/>
+      <c r="AQ44" s="63"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
-      <c r="AX44" s="77"/>
+      <c r="AX44" s="63"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="19"/>
-      <c r="BA44" s="59"/>
+      <c r="BA44" s="45"/>
       <c r="BB44" s="14"/>
-      <c r="BC44" s="85"/>
-      <c r="BD44" s="85"/>
-      <c r="BE44" s="88"/>
+      <c r="BC44" s="71"/>
+      <c r="BD44" s="71"/>
+      <c r="BE44" s="74"/>
       <c r="BF44" s="14"/>
       <c r="BG44" s="14"/>
       <c r="BH44" s="14"/>
       <c r="BI44" s="14"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="88"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="71"/>
+      <c r="BL44" s="74"/>
       <c r="BM44" s="14"/>
       <c r="BN44" s="14"/>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="2"/>
       <c r="BR44" s="2"/>
-      <c r="BS44" s="77"/>
+      <c r="BS44" s="63"/>
       <c r="BT44" s="1"/>
       <c r="BU44" s="1"/>
       <c r="BV44" s="2"/>
       <c r="BW44" s="2"/>
       <c r="BX44" s="2"/>
       <c r="BY44" s="2"/>
-      <c r="BZ44" s="77"/>
+      <c r="BZ44" s="63"/>
       <c r="CA44" s="1"/>
       <c r="CB44" s="1"/>
       <c r="CC44" s="1"/>
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="37"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="63" t="s">
+      <c r="B45" s="93"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="71">
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="83"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="69"/>
-      <c r="Y45" s="69"/>
-      <c r="Z45" s="69"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="89"/>
-      <c r="AD45" s="69"/>
-      <c r="AE45" s="69"/>
-      <c r="AF45" s="69"/>
-      <c r="AG45" s="89"/>
-      <c r="AH45" s="86"/>
-      <c r="AI45" s="86"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="64"/>
-      <c r="AN45" s="78"/>
-      <c r="AO45" s="92"/>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="64"/>
-      <c r="AS45" s="64"/>
-      <c r="AT45" s="64"/>
-      <c r="AU45" s="64"/>
-      <c r="AV45" s="74"/>
-      <c r="AW45" s="74"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="64"/>
-      <c r="AZ45" s="65"/>
-      <c r="BA45" s="68"/>
-      <c r="BB45" s="69"/>
-      <c r="BC45" s="86"/>
-      <c r="BD45" s="86"/>
-      <c r="BE45" s="89"/>
-      <c r="BF45" s="69"/>
-      <c r="BG45" s="69"/>
-      <c r="BH45" s="69"/>
-      <c r="BI45" s="69"/>
-      <c r="BJ45" s="86"/>
-      <c r="BK45" s="86"/>
-      <c r="BL45" s="89"/>
-      <c r="BM45" s="69"/>
-      <c r="BN45" s="69"/>
-      <c r="BO45" s="64"/>
-      <c r="BP45" s="64"/>
-      <c r="BQ45" s="74"/>
-      <c r="BR45" s="74"/>
-      <c r="BS45" s="78"/>
-      <c r="BT45" s="64"/>
-      <c r="BU45" s="64"/>
-      <c r="BV45" s="74"/>
-      <c r="BW45" s="74"/>
-      <c r="BX45" s="74"/>
-      <c r="BY45" s="74"/>
-      <c r="BZ45" s="78"/>
-      <c r="CA45" s="64"/>
-      <c r="CB45" s="64"/>
-      <c r="CC45" s="64"/>
-      <c r="CD45" s="65"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="72"/>
+      <c r="AI45" s="72"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
+      <c r="AM45" s="50"/>
+      <c r="AN45" s="64"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="64"/>
+      <c r="AR45" s="50"/>
+      <c r="AS45" s="50"/>
+      <c r="AT45" s="50"/>
+      <c r="AU45" s="50"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="64"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="54"/>
+      <c r="BB45" s="55"/>
+      <c r="BC45" s="72"/>
+      <c r="BD45" s="72"/>
+      <c r="BE45" s="75"/>
+      <c r="BF45" s="55"/>
+      <c r="BG45" s="55"/>
+      <c r="BH45" s="55"/>
+      <c r="BI45" s="55"/>
+      <c r="BJ45" s="72"/>
+      <c r="BK45" s="72"/>
+      <c r="BL45" s="75"/>
+      <c r="BM45" s="55"/>
+      <c r="BN45" s="55"/>
+      <c r="BO45" s="50"/>
+      <c r="BP45" s="50"/>
+      <c r="BQ45" s="60"/>
+      <c r="BR45" s="60"/>
+      <c r="BS45" s="64"/>
+      <c r="BT45" s="50"/>
+      <c r="BU45" s="50"/>
+      <c r="BV45" s="60"/>
+      <c r="BW45" s="60"/>
+      <c r="BX45" s="60"/>
+      <c r="BY45" s="60"/>
+      <c r="BZ45" s="64"/>
+      <c r="CA45" s="50"/>
+      <c r="CB45" s="50"/>
+      <c r="CC45" s="50"/>
+      <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="84" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5785,10 +5792,10 @@
       <c r="F46" s="26">
         <v>44363</v>
       </c>
-      <c r="G46" s="72" t="s">
+      <c r="G46" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="96" t="s">
+      <c r="H46" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="20"/>
@@ -5797,157 +5804,157 @@
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="77"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="77"/>
+      <c r="S46" s="63"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="82"/>
+      <c r="V46" s="68"/>
       <c r="W46" s="20"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="77"/>
+      <c r="AC46" s="63"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="77"/>
+      <c r="AG46" s="63"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="77"/>
+      <c r="AJ46" s="63"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="1"/>
-      <c r="AN46" s="77"/>
+      <c r="AN46" s="63"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
-      <c r="AQ46" s="77"/>
+      <c r="AQ46" s="63"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1"/>
       <c r="AU46" s="1"/>
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
-      <c r="AX46" s="77"/>
+      <c r="AX46" s="63"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="19"/>
       <c r="BA46" s="20"/>
       <c r="BB46" s="1"/>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
-      <c r="BE46" s="77"/>
+      <c r="BE46" s="63"/>
       <c r="BF46" s="1"/>
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
       <c r="BJ46" s="2"/>
       <c r="BK46" s="2"/>
-      <c r="BL46" s="77"/>
+      <c r="BL46" s="63"/>
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
       <c r="BQ46" s="2"/>
       <c r="BR46" s="2"/>
-      <c r="BS46" s="77"/>
+      <c r="BS46" s="63"/>
       <c r="BT46" s="1"/>
       <c r="BU46" s="1"/>
       <c r="BV46" s="2"/>
       <c r="BW46" s="2"/>
       <c r="BX46" s="2"/>
       <c r="BY46" s="2"/>
-      <c r="BZ46" s="77"/>
+      <c r="BZ46" s="63"/>
       <c r="CA46" s="1"/>
       <c r="CB46" s="1"/>
       <c r="CC46" s="1"/>
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="36"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="71">
+      <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="95"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="77"/>
+      <c r="O47" s="63"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="77"/>
+      <c r="S47" s="63"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="82"/>
+      <c r="V47" s="68"/>
       <c r="W47" s="20"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="77"/>
+      <c r="AC47" s="63"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="77"/>
+      <c r="AG47" s="63"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
-      <c r="AJ47" s="77"/>
+      <c r="AJ47" s="63"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
-      <c r="AN47" s="77"/>
+      <c r="AN47" s="63"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
-      <c r="AQ47" s="77"/>
+      <c r="AQ47" s="63"/>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1"/>
       <c r="AU47" s="1"/>
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
-      <c r="AX47" s="77"/>
+      <c r="AX47" s="63"/>
       <c r="AY47" s="1"/>
       <c r="AZ47" s="19"/>
       <c r="BA47" s="20"/>
       <c r="BB47" s="1"/>
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
-      <c r="BE47" s="77"/>
+      <c r="BE47" s="63"/>
       <c r="BF47" s="1"/>
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
       <c r="BJ47" s="2"/>
       <c r="BK47" s="2"/>
-      <c r="BL47" s="77"/>
+      <c r="BL47" s="63"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
       <c r="BQ47" s="2"/>
       <c r="BR47" s="2"/>
-      <c r="BS47" s="77"/>
+      <c r="BS47" s="63"/>
       <c r="BT47" s="1"/>
       <c r="BU47" s="1"/>
       <c r="BV47" s="2"/>
       <c r="BW47" s="2"/>
       <c r="BX47" s="2"/>
       <c r="BY47" s="2"/>
-      <c r="BZ47" s="77"/>
+      <c r="BZ47" s="63"/>
       <c r="CA47" s="1"/>
       <c r="CB47" s="1"/>
       <c r="CC47" s="1"/>
@@ -6025,10 +6032,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="77"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -6340,12 +6347,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6362,27 +6384,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DCB81-82F9-499A-80FE-A31B28103319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D56E7-90EB-4620-95A2-AE075077C554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
@@ -1222,65 +1222,65 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,95 +1623,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="95" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="95" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="95" t="s">
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="96"/>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="96"/>
-      <c r="BP2" s="96"/>
-      <c r="BQ2" s="96"/>
-      <c r="BR2" s="96"/>
-      <c r="BS2" s="96"/>
-      <c r="BT2" s="96"/>
-      <c r="BU2" s="96"/>
-      <c r="BV2" s="96"/>
-      <c r="BW2" s="96"/>
-      <c r="BX2" s="96"/>
-      <c r="BY2" s="96"/>
-      <c r="BZ2" s="96"/>
-      <c r="CA2" s="96"/>
-      <c r="CB2" s="96"/>
-      <c r="CC2" s="96"/>
-      <c r="CD2" s="97"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87"/>
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
+      <c r="BY2" s="87"/>
+      <c r="BZ2" s="87"/>
+      <c r="CA2" s="87"/>
+      <c r="CB2" s="87"/>
+      <c r="CC2" s="87"/>
+      <c r="CD2" s="88"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1959,10 +1959,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1977,7 +1977,7 @@
       <c r="G4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="95" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="43"/>
@@ -2056,8 +2056,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="83"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="13"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2147,10 +2147,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2162,10 +2162,10 @@
       <c r="F6" s="26">
         <v>44335</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="89" t="s">
+      <c r="G6" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="41"/>
@@ -2244,19 +2244,19 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="83"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="57">
-        <v>0</v>
-      </c>
-      <c r="H7" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="96"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
@@ -2331,10 +2331,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2346,10 +2346,10 @@
       <c r="F8" s="26">
         <v>44335</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="89" t="s">
+      <c r="G8" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="97" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="41"/>
@@ -2428,19 +2428,19 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="94"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="57">
-        <v>0</v>
-      </c>
-      <c r="H9" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="96"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2"/>
@@ -2515,8 +2515,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="94"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2531,7 +2531,7 @@
       <c r="G10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="97" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="41"/>
@@ -2610,8 +2610,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="92"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2624,8 +2624,8 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="99"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2701,10 +2701,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="84" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2719,7 +2719,7 @@
       <c r="G12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="98" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="41"/>
@@ -2798,8 +2798,8 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="94"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="G13" s="57">
         <v>0</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2885,8 +2885,8 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="94"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2901,7 +2901,7 @@
       <c r="G14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2978,8 +2978,8 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="94"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="G15" s="57">
         <v>0</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3065,8 +3065,8 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="94"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="89" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3081,7 +3081,7 @@
       <c r="G16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3158,8 +3158,8 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="94"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="G17" s="57">
         <v>0</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3245,8 +3245,8 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="94"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="89" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3261,7 +3261,7 @@
       <c r="G18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="81"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3338,8 +3338,8 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="92"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="G19" s="57">
         <v>0</v>
       </c>
-      <c r="H19" s="82"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3425,10 +3425,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="84" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3443,7 +3443,7 @@
       <c r="G20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="98" t="s">
         <v>48</v>
       </c>
       <c r="I20" s="41"/>
@@ -3522,8 +3522,8 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="94"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="G21" s="57">
         <v>0</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3609,8 +3609,8 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="94"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3625,7 +3625,7 @@
       <c r="G22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3702,8 +3702,8 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="94"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="G23" s="57">
         <v>0</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3789,8 +3789,8 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="94"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="89" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3805,7 +3805,7 @@
       <c r="G24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3882,8 +3882,8 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="94"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3969,8 +3969,8 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="94"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="89" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3985,7 +3985,7 @@
       <c r="G26" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4062,8 +4062,8 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="82"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4149,10 +4149,10 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="89" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4167,7 +4167,7 @@
       <c r="G28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="98" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="41"/>
@@ -4246,8 +4246,8 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4333,8 +4333,8 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="91"/>
+      <c r="C30" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4349,7 +4349,7 @@
       <c r="G30" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4426,8 +4426,8 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4513,8 +4513,8 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="91"/>
+      <c r="C32" s="89" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4529,7 +4529,7 @@
       <c r="G32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="81"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4606,8 +4606,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4693,8 +4693,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="89" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4709,7 +4709,7 @@
       <c r="G34" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="80" t="s">
+      <c r="H34" s="98" t="s">
         <v>50</v>
       </c>
       <c r="I34" s="41"/>
@@ -4788,8 +4788,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="99"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4875,8 +4875,8 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="91"/>
+      <c r="C36" s="89" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4891,7 +4891,7 @@
       <c r="G36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="81"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4968,8 +4968,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="81"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5055,8 +5055,8 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="83"/>
-      <c r="C38" s="84" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="89" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5071,7 +5071,7 @@
       <c r="G38" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="81"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5148,8 +5148,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="82"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5235,8 +5235,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="83"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="91"/>
+      <c r="C40" s="89" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5251,7 +5251,7 @@
       <c r="G40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="98" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="41"/>
@@ -5330,8 +5330,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="81"/>
+      <c r="H41" s="99"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5417,8 +5417,8 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="83"/>
-      <c r="C42" s="84" t="s">
+      <c r="B42" s="91"/>
+      <c r="C42" s="89" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5433,7 +5433,7 @@
       <c r="G42" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="81"/>
+      <c r="H42" s="99"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5510,8 +5510,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5520,7 +5520,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="81"/>
+      <c r="H43" s="99"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5597,8 +5597,8 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84" t="s">
+      <c r="B44" s="91"/>
+      <c r="C44" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5613,7 +5613,7 @@
       <c r="G44" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="81"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5690,8 +5690,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="93"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="82"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5777,10 +5777,10 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="89" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5795,7 +5795,7 @@
       <c r="G46" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="H46" s="98" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="20"/>
@@ -5874,8 +5874,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="82"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -6347,27 +6347,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6384,12 +6368,28 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="H12:H19"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D56E7-90EB-4620-95A2-AE075077C554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F8796-52EA-4E54-9F6E-BF2847044463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>5月</t>
     <rPh sb="1" eb="2">
@@ -216,16 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能環境</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能設計書</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -529,6 +519,26 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム開発環境</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,65 +1232,68 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,95 +1636,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="86" t="s">
+      <c r="B2" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="86" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="86" t="s">
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="95"/>
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="87"/>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="87"/>
-      <c r="BO2" s="87"/>
-      <c r="BP2" s="87"/>
-      <c r="BQ2" s="87"/>
-      <c r="BR2" s="87"/>
-      <c r="BS2" s="87"/>
-      <c r="BT2" s="87"/>
-      <c r="BU2" s="87"/>
-      <c r="BV2" s="87"/>
-      <c r="BW2" s="87"/>
-      <c r="BX2" s="87"/>
-      <c r="BY2" s="87"/>
-      <c r="BZ2" s="87"/>
-      <c r="CA2" s="87"/>
-      <c r="CB2" s="87"/>
-      <c r="CC2" s="87"/>
-      <c r="CD2" s="88"/>
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="95"/>
+      <c r="BD2" s="95"/>
+      <c r="BE2" s="95"/>
+      <c r="BF2" s="95"/>
+      <c r="BG2" s="95"/>
+      <c r="BH2" s="95"/>
+      <c r="BI2" s="95"/>
+      <c r="BJ2" s="95"/>
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="95"/>
+      <c r="BM2" s="95"/>
+      <c r="BN2" s="95"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="95"/>
+      <c r="BQ2" s="95"/>
+      <c r="BR2" s="95"/>
+      <c r="BS2" s="95"/>
+      <c r="BT2" s="95"/>
+      <c r="BU2" s="95"/>
+      <c r="BV2" s="95"/>
+      <c r="BW2" s="95"/>
+      <c r="BX2" s="95"/>
+      <c r="BY2" s="95"/>
+      <c r="BZ2" s="95"/>
+      <c r="CA2" s="95"/>
+      <c r="CB2" s="95"/>
+      <c r="CC2" s="95"/>
+      <c r="CD2" s="96"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1724,16 +1737,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="30">
         <v>18</v>
@@ -1825,10 +1838,10 @@
       <c r="AL3" s="35">
         <v>16</v>
       </c>
-      <c r="AM3" s="35">
+      <c r="AM3" s="79">
         <v>17</v>
       </c>
-      <c r="AN3" s="79">
+      <c r="AN3" s="38">
         <v>18</v>
       </c>
       <c r="AO3" s="39">
@@ -1959,10 +1972,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="97" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1975,10 +1988,10 @@
         <v>44334</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>42</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="22"/>
@@ -2010,8 +2023,8 @@
       <c r="AJ4" s="73"/>
       <c r="AK4" s="22"/>
       <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="99"/>
       <c r="AO4" s="76"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="62"/>
@@ -2056,8 +2069,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="91"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2070,8 +2083,8 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2101,8 +2114,8 @@
       <c r="AJ5" s="74"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="3"/>
       <c r="AO5" s="77"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="63"/>
@@ -2147,10 +2160,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2163,10 +2176,10 @@
         <v>44335</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="6"/>
@@ -2198,8 +2211,8 @@
       <c r="AJ6" s="74"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="3"/>
       <c r="AO6" s="77"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="63"/>
@@ -2244,8 +2257,8 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="91"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -2254,9 +2267,9 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="80"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
@@ -2285,8 +2298,8 @@
       <c r="AJ7" s="74"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="3"/>
       <c r="AO7" s="77"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="63"/>
@@ -2331,10 +2344,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="90" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2347,10 +2360,10 @@
         <v>44335</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="6"/>
@@ -2382,8 +2395,8 @@
       <c r="AJ8" s="74"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="3"/>
       <c r="AO8" s="77"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="63"/>
@@ -2428,8 +2441,8 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
@@ -2438,9 +2451,9 @@
       <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="96"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="80"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2"/>
@@ -2469,8 +2482,8 @@
       <c r="AJ9" s="74"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="3"/>
       <c r="AO9" s="77"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="63"/>
@@ -2515,8 +2528,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="82"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2529,10 +2542,10 @@
         <v>44335</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="97" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>45</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="6"/>
@@ -2564,8 +2577,8 @@
       <c r="AJ10" s="74"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="63"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="3"/>
       <c r="AO10" s="77"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="63"/>
@@ -2610,8 +2623,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="83"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2624,8 +2637,8 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2655,8 +2668,8 @@
       <c r="AJ11" s="74"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="3"/>
       <c r="AO11" s="77"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="63"/>
@@ -2701,10 +2714,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2717,10 +2730,10 @@
         <v>44336</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="1"/>
@@ -2752,8 +2765,8 @@
       <c r="AJ12" s="74"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="3"/>
       <c r="AO12" s="77"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="63"/>
@@ -2798,21 +2811,21 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="57">
-        <v>0</v>
-      </c>
-      <c r="H13" s="99"/>
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="82"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="63"/>
@@ -2839,8 +2852,8 @@
       <c r="AJ13" s="74"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="3"/>
       <c r="AO13" s="77"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="63"/>
@@ -2885,9 +2898,9 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="82"/>
-      <c r="C14" s="84" t="s">
-        <v>21</v>
+      <c r="B14" s="98"/>
+      <c r="C14" s="90" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -2899,9 +2912,9 @@
         <v>44336</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="99"/>
+        <v>52</v>
+      </c>
+      <c r="H14" s="82"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2932,8 +2945,8 @@
       <c r="AJ14" s="74"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="3"/>
       <c r="AO14" s="77"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="63"/>
@@ -2978,21 +2991,21 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="57">
-        <v>0</v>
-      </c>
-      <c r="H15" s="99"/>
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="82"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="63"/>
@@ -3019,8 +3032,8 @@
       <c r="AJ15" s="74"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="3"/>
       <c r="AO15" s="77"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="63"/>
@@ -3065,9 +3078,9 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="82"/>
-      <c r="C16" s="89" t="s">
-        <v>29</v>
+      <c r="B16" s="98"/>
+      <c r="C16" s="84" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>2</v>
@@ -3079,9 +3092,9 @@
         <v>44336</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="99"/>
+        <v>52</v>
+      </c>
+      <c r="H16" s="82"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3112,8 +3125,8 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="3"/>
       <c r="AO16" s="77"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="63"/>
@@ -3158,8 +3171,8 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="82"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
@@ -3168,11 +3181,11 @@
       <c r="G17" s="57">
         <v>0</v>
       </c>
-      <c r="H17" s="99"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="63"/>
@@ -3199,8 +3212,8 @@
       <c r="AJ17" s="74"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="3"/>
       <c r="AO17" s="77"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="63"/>
@@ -3245,9 +3258,9 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="82"/>
-      <c r="C18" s="89" t="s">
-        <v>30</v>
+      <c r="B18" s="98"/>
+      <c r="C18" s="84" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>2</v>
@@ -3259,9 +3272,9 @@
         <v>44337</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="99"/>
+        <v>52</v>
+      </c>
+      <c r="H18" s="82"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3292,8 +3305,8 @@
       <c r="AJ18" s="74"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="3"/>
       <c r="AO18" s="77"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="63"/>
@@ -3338,8 +3351,8 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="83"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
@@ -3348,10 +3361,10 @@
       <c r="G19" s="57">
         <v>0</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="1"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3379,8 +3392,8 @@
       <c r="AJ19" s="74"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="3"/>
       <c r="AO19" s="77"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="63"/>
@@ -3425,10 +3438,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="90" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3441,10 +3454,10 @@
         <v>44337</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="1"/>
@@ -3476,8 +3489,8 @@
       <c r="AJ20" s="74"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="3"/>
       <c r="AO20" s="77"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="63"/>
@@ -3522,8 +3535,8 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="82"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3545,7 @@
       <c r="G21" s="57">
         <v>0</v>
       </c>
-      <c r="H21" s="99"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3563,8 +3576,8 @@
       <c r="AJ21" s="74"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="63"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="3"/>
       <c r="AO21" s="77"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="63"/>
@@ -3609,9 +3622,9 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="82"/>
-      <c r="C22" s="84" t="s">
-        <v>23</v>
+      <c r="B22" s="98"/>
+      <c r="C22" s="90" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>2</v>
@@ -3623,9 +3636,9 @@
         <v>44343</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H22" s="82"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3656,8 +3669,8 @@
       <c r="AJ22" s="74"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="3"/>
       <c r="AO22" s="77"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="63"/>
@@ -3702,8 +3715,8 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="82"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3725,7 @@
       <c r="G23" s="57">
         <v>0</v>
       </c>
-      <c r="H23" s="99"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3743,8 +3756,8 @@
       <c r="AJ23" s="74"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="63"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="3"/>
       <c r="AO23" s="77"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="63"/>
@@ -3789,9 +3802,9 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="82"/>
-      <c r="C24" s="89" t="s">
-        <v>29</v>
+      <c r="B24" s="98"/>
+      <c r="C24" s="84" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>2</v>
@@ -3803,9 +3816,9 @@
         <v>44343</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H24" s="82"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3836,8 +3849,8 @@
       <c r="AJ24" s="74"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="3"/>
       <c r="AO24" s="77"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="63"/>
@@ -3882,8 +3895,8 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="82"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
@@ -3892,7 +3905,7 @@
       <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="99"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3923,8 +3936,8 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="3"/>
       <c r="AO25" s="77"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="63"/>
@@ -3969,9 +3982,9 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="82"/>
-      <c r="C26" s="89" t="s">
-        <v>31</v>
+      <c r="B26" s="98"/>
+      <c r="C26" s="84" t="s">
+        <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>2</v>
@@ -3983,9 +3996,9 @@
         <v>44343</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H26" s="82"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4016,8 +4029,8 @@
       <c r="AJ26" s="74"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="3"/>
       <c r="AO26" s="77"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="63"/>
@@ -4062,8 +4075,8 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="83"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4085,7 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="96"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4103,8 +4116,8 @@
       <c r="AJ27" s="74"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="3"/>
       <c r="AO27" s="77"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="63"/>
@@ -4149,11 +4162,11 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="89" t="s">
+      <c r="B28" s="83" t="s">
         <v>24</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>2</v>
@@ -4165,10 +4178,10 @@
         <v>44348</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="98" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>48</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="1"/>
@@ -4200,8 +4213,8 @@
       <c r="AJ28" s="74"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="3"/>
       <c r="AO28" s="77"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="63"/>
@@ -4246,8 +4259,8 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="91"/>
-      <c r="C29" s="89"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4269,7 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="99"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4287,8 +4300,8 @@
       <c r="AJ29" s="74"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="3"/>
       <c r="AO29" s="77"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="63"/>
@@ -4333,9 +4346,9 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="91"/>
-      <c r="C30" s="89" t="s">
-        <v>32</v>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>2</v>
@@ -4347,9 +4360,9 @@
         <v>44348</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H30" s="82"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4380,8 +4393,8 @@
       <c r="AJ30" s="74"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="3"/>
       <c r="AO30" s="77"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="63"/>
@@ -4426,8 +4439,8 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="91"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4449,7 @@
       <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="99"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4467,8 +4480,8 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="3"/>
       <c r="AO31" s="77"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="63"/>
@@ -4513,9 +4526,9 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="91"/>
-      <c r="C32" s="89" t="s">
-        <v>33</v>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>2</v>
@@ -4527,9 +4540,9 @@
         <v>44349</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H32" s="82"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4560,8 +4573,8 @@
       <c r="AJ32" s="74"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="3"/>
       <c r="AO32" s="77"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="63"/>
@@ -4606,8 +4619,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="91"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4629,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="96"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4647,8 +4660,8 @@
       <c r="AJ33" s="74"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="3"/>
       <c r="AO33" s="77"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="63"/>
@@ -4693,8 +4706,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="91"/>
-      <c r="C34" s="89" t="s">
+      <c r="B34" s="83"/>
+      <c r="C34" s="84" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4707,10 +4720,10 @@
         <v>44350</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="98" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="1"/>
@@ -4742,8 +4755,8 @@
       <c r="AJ34" s="63"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="3"/>
       <c r="AO34" s="77"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="63"/>
@@ -4788,8 +4801,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="91"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4798,7 +4811,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="99"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4829,8 +4842,8 @@
       <c r="AJ35" s="63"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="3"/>
       <c r="AO35" s="77"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="63"/>
@@ -4875,9 +4888,9 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="91"/>
-      <c r="C36" s="89" t="s">
-        <v>34</v>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84" t="s">
+        <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>2</v>
@@ -4889,9 +4902,9 @@
         <v>44351</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H36" s="82"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4922,8 +4935,8 @@
       <c r="AJ36" s="74"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="63"/>
+      <c r="AM36" s="63"/>
+      <c r="AN36" s="3"/>
       <c r="AO36" s="77"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="63"/>
@@ -4968,8 +4981,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="91"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4991,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="99"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5009,8 +5022,8 @@
       <c r="AJ37" s="74"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="63"/>
+      <c r="AM37" s="63"/>
+      <c r="AN37" s="3"/>
       <c r="AO37" s="77"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="63"/>
@@ -5055,9 +5068,9 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="91"/>
-      <c r="C38" s="89" t="s">
-        <v>35</v>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84" t="s">
+        <v>34</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>2</v>
@@ -5069,9 +5082,9 @@
         <v>44351</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H38" s="82"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5102,8 +5115,8 @@
       <c r="AJ38" s="74"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="63"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="3"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="63"/>
@@ -5148,8 +5161,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="91"/>
-      <c r="C39" s="89"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5171,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="96"/>
+      <c r="H39" s="81"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5189,8 +5202,8 @@
       <c r="AJ39" s="74"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="3"/>
       <c r="AO39" s="77"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="63"/>
@@ -5235,8 +5248,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="91"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="84" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5249,10 +5262,10 @@
         <v>44356</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="H40" s="80" t="s">
+        <v>50</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="1"/>
@@ -5284,8 +5297,8 @@
       <c r="AJ40" s="63"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="3"/>
       <c r="AO40" s="77"/>
       <c r="AP40" s="2"/>
       <c r="AQ40" s="63"/>
@@ -5330,8 +5343,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="91"/>
-      <c r="C41" s="89"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5340,7 +5353,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="99"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5371,8 +5384,8 @@
       <c r="AJ41" s="63"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="3"/>
       <c r="AO41" s="77"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="63"/>
@@ -5417,9 +5430,9 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="91"/>
-      <c r="C42" s="89" t="s">
-        <v>36</v>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84" t="s">
+        <v>35</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>2</v>
@@ -5431,9 +5444,9 @@
         <v>44362</v>
       </c>
       <c r="G42" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H42" s="82"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5464,8 +5477,8 @@
       <c r="AJ42" s="63"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="3"/>
       <c r="AO42" s="77"/>
       <c r="AP42" s="2"/>
       <c r="AQ42" s="63"/>
@@ -5510,8 +5523,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="91"/>
-      <c r="C43" s="89"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5520,7 +5533,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="99"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5551,8 +5564,8 @@
       <c r="AJ43" s="74"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="3"/>
       <c r="AO43" s="77"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="63"/>
@@ -5597,9 +5610,9 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="91"/>
-      <c r="C44" s="89" t="s">
-        <v>37</v>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84" t="s">
+        <v>36</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>2</v>
@@ -5611,9 +5624,9 @@
         <v>44362</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="H44" s="82"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5644,8 +5657,8 @@
       <c r="AJ44" s="63"/>
       <c r="AK44" s="6"/>
       <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="63"/>
+      <c r="AM44" s="63"/>
+      <c r="AN44" s="3"/>
       <c r="AO44" s="77"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="63"/>
@@ -5690,8 +5703,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="81"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5700,7 +5713,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="96"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5731,8 +5744,8 @@
       <c r="AJ45" s="75"/>
       <c r="AK45" s="50"/>
       <c r="AL45" s="50"/>
-      <c r="AM45" s="50"/>
-      <c r="AN45" s="64"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="100"/>
       <c r="AO45" s="78"/>
       <c r="AP45" s="60"/>
       <c r="AQ45" s="64"/>
@@ -5777,11 +5790,11 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="89" t="s">
-        <v>38</v>
+      <c r="B46" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -5793,10 +5806,10 @@
         <v>44363</v>
       </c>
       <c r="G46" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="98" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H46" s="80" t="s">
+        <v>37</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="1"/>
@@ -5828,8 +5841,8 @@
       <c r="AJ46" s="63"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="6"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="3"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="63"/>
@@ -5874,8 +5887,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="91"/>
-      <c r="C47" s="89"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +5897,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="81"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -5915,8 +5928,8 @@
       <c r="AJ47" s="63"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="63"/>
+      <c r="AM47" s="63"/>
+      <c r="AN47" s="3"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="63"/>
@@ -6033,7 +6046,7 @@
     <row r="53" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="8"/>
@@ -6347,11 +6360,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6368,28 +6398,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F8796-52EA-4E54-9F6E-BF2847044463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621AA43-F68B-4B76-8C1B-5CE58FC8F147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
+    <workbookView xWindow="3030" yWindow="840" windowWidth="21450" windowHeight="16305" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -1232,21 +1232,54 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,39 +1294,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,10 +1612,10 @@
   <dimension ref="A1:CD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1636,95 +1636,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="94" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="94" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="94" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="95"/>
-      <c r="BE2" s="95"/>
-      <c r="BF2" s="95"/>
-      <c r="BG2" s="95"/>
-      <c r="BH2" s="95"/>
-      <c r="BI2" s="95"/>
-      <c r="BJ2" s="95"/>
-      <c r="BK2" s="95"/>
-      <c r="BL2" s="95"/>
-      <c r="BM2" s="95"/>
-      <c r="BN2" s="95"/>
-      <c r="BO2" s="95"/>
-      <c r="BP2" s="95"/>
-      <c r="BQ2" s="95"/>
-      <c r="BR2" s="95"/>
-      <c r="BS2" s="95"/>
-      <c r="BT2" s="95"/>
-      <c r="BU2" s="95"/>
-      <c r="BV2" s="95"/>
-      <c r="BW2" s="95"/>
-      <c r="BX2" s="95"/>
-      <c r="BY2" s="95"/>
-      <c r="BZ2" s="95"/>
-      <c r="CA2" s="95"/>
-      <c r="CB2" s="95"/>
-      <c r="CC2" s="95"/>
-      <c r="CD2" s="96"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
+      <c r="BX2" s="88"/>
+      <c r="BY2" s="88"/>
+      <c r="BZ2" s="88"/>
+      <c r="CA2" s="88"/>
+      <c r="CB2" s="88"/>
+      <c r="CC2" s="88"/>
+      <c r="CD2" s="89"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1972,10 +1972,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1990,7 +1990,7 @@
       <c r="G4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="99" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="43"/>
@@ -2024,7 +2024,7 @@
       <c r="AK4" s="22"/>
       <c r="AL4" s="22"/>
       <c r="AM4" s="62"/>
-      <c r="AN4" s="99"/>
+      <c r="AN4" s="80"/>
       <c r="AO4" s="76"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="62"/>
@@ -2069,8 +2069,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="83"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2160,10 +2160,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2178,7 +2178,7 @@
       <c r="G6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="100" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="41"/>
@@ -2257,8 +2257,8 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="83"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="41"/>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2344,10 +2344,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2362,7 +2362,7 @@
       <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="100" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="41"/>
@@ -2441,8 +2441,8 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="98"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="41"/>
       <c r="J9" s="12"/>
       <c r="K9" s="1"/>
@@ -2528,8 +2528,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="98"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2544,7 +2544,7 @@
       <c r="G10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="100" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="41"/>
@@ -2623,8 +2623,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="92"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="81"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2714,10 +2714,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2732,7 +2732,7 @@
       <c r="G12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="92" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="41"/>
@@ -2811,8 +2811,8 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="98"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="G13" s="57">
         <v>0.9</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
       <c r="K13" s="13"/>
@@ -2829,7 +2829,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="63"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="63"/>
@@ -2898,8 +2898,8 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="98"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="85" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2914,7 +2914,7 @@
       <c r="G14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2991,8 +2991,8 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="98"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="G15" s="57">
         <v>0.9</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="13"/>
@@ -3009,7 +3009,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="63"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="63"/>
@@ -3078,8 +3078,8 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="98"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3094,7 +3094,7 @@
       <c r="G16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3171,17 +3171,17 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="98"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="57">
-        <v>0</v>
-      </c>
-      <c r="H17" s="82"/>
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="93"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
       <c r="K17" s="13"/>
@@ -3189,7 +3189,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="63"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="63"/>
@@ -3258,8 +3258,8 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="98"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="91" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3274,7 +3274,7 @@
       <c r="G18" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="82"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3351,25 +3351,25 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="92"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="57">
-        <v>0</v>
-      </c>
-      <c r="H19" s="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="94"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="63"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="63"/>
@@ -3438,10 +3438,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3454,9 +3454,9 @@
         <v>44337</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="92" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="41"/>
@@ -3535,25 +3535,25 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="98"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="57">
-        <v>0</v>
-      </c>
-      <c r="H21" s="82"/>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="93"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="63"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="1"/>
       <c r="S21" s="63"/>
@@ -3622,8 +3622,8 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="98"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="85" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3636,9 +3636,9 @@
         <v>44343</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="82"/>
+        <v>52</v>
+      </c>
+      <c r="H22" s="93"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3715,21 +3715,21 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="98"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="57">
-        <v>0</v>
-      </c>
-      <c r="H23" s="82"/>
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="93"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="63"/>
@@ -3802,8 +3802,8 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="98"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3818,7 +3818,7 @@
       <c r="G24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3895,8 +3895,8 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="98"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3982,8 +3982,8 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="98"/>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="91" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3998,7 +3998,7 @@
       <c r="G26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="82"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4075,8 +4075,8 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="92"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4162,10 +4162,10 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="91" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4180,7 +4180,7 @@
       <c r="G28" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="92" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="41"/>
@@ -4259,8 +4259,8 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4346,8 +4346,8 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="91" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4362,7 +4362,7 @@
       <c r="G30" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="82"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4439,8 +4439,8 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="82"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4526,8 +4526,8 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="83"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="91" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4542,7 +4542,7 @@
       <c r="G32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="82"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4619,8 +4619,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="81"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4706,8 +4706,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="83"/>
-      <c r="C34" s="84" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="91" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4722,7 +4722,7 @@
       <c r="G34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="80" t="s">
+      <c r="H34" s="92" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="41"/>
@@ -4801,8 +4801,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="82"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4888,8 +4888,8 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="91" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4904,7 +4904,7 @@
       <c r="G36" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="82"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4981,8 +4981,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="82"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5068,8 +5068,8 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="83"/>
-      <c r="C38" s="84" t="s">
+      <c r="B38" s="95"/>
+      <c r="C38" s="91" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5084,7 +5084,7 @@
       <c r="G38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="82"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5161,8 +5161,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="81"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5248,8 +5248,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="83"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="95"/>
+      <c r="C40" s="91" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5264,7 +5264,7 @@
       <c r="G40" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="80" t="s">
+      <c r="H40" s="92" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="41"/>
@@ -5343,8 +5343,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="82"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5430,8 +5430,8 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="83"/>
-      <c r="C42" s="84" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="91" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5446,7 +5446,7 @@
       <c r="G42" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="82"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5523,8 +5523,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="82"/>
+      <c r="H43" s="93"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5610,8 +5610,8 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84" t="s">
+      <c r="B44" s="95"/>
+      <c r="C44" s="91" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5626,7 +5626,7 @@
       <c r="G44" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="82"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5703,8 +5703,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="93"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="81"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5745,7 +5745,7 @@
       <c r="AK45" s="50"/>
       <c r="AL45" s="50"/>
       <c r="AM45" s="64"/>
-      <c r="AN45" s="100"/>
+      <c r="AN45" s="81"/>
       <c r="AO45" s="78"/>
       <c r="AP45" s="60"/>
       <c r="AQ45" s="64"/>
@@ -5790,10 +5790,10 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5808,7 +5808,7 @@
       <c r="G46" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="80" t="s">
+      <c r="H46" s="92" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="20"/>
@@ -5887,8 +5887,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="81"/>
+      <c r="H47" s="94"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -6360,28 +6360,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6398,11 +6381,28 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H12:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621AA43-F68B-4B76-8C1B-5CE58FC8F147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43117B-7295-44D7-97C2-A653EE54510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="840" windowWidth="21450" windowHeight="16305" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -1238,21 +1238,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1264,36 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1615,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1636,95 +1636,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="87" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="87" t="s">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="87" t="s">
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="88"/>
-      <c r="BT2" s="88"/>
-      <c r="BU2" s="88"/>
-      <c r="BV2" s="88"/>
-      <c r="BW2" s="88"/>
-      <c r="BX2" s="88"/>
-      <c r="BY2" s="88"/>
-      <c r="BZ2" s="88"/>
-      <c r="CA2" s="88"/>
-      <c r="CB2" s="88"/>
-      <c r="CC2" s="88"/>
-      <c r="CD2" s="89"/>
+      <c r="BB2" s="98"/>
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="98"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="98"/>
+      <c r="BT2" s="98"/>
+      <c r="BU2" s="98"/>
+      <c r="BV2" s="98"/>
+      <c r="BW2" s="98"/>
+      <c r="BX2" s="98"/>
+      <c r="BY2" s="98"/>
+      <c r="BZ2" s="98"/>
+      <c r="CA2" s="98"/>
+      <c r="CB2" s="98"/>
+      <c r="CC2" s="98"/>
+      <c r="CD2" s="99"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1972,10 +1972,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="100" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1990,7 +1990,7 @@
       <c r="G4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="90" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="43"/>
@@ -2069,8 +2069,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="95"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2160,10 +2160,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2178,7 +2178,7 @@
       <c r="G6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="91" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="41"/>
@@ -2257,8 +2257,8 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="95"/>
-      <c r="C7" s="86"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="41"/>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2344,10 +2344,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2362,7 +2362,7 @@
       <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="91" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="41"/>
@@ -2441,8 +2441,8 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="41"/>
       <c r="J9" s="12"/>
       <c r="K9" s="1"/>
@@ -2528,8 +2528,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="83"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="92" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2544,7 +2544,7 @@
       <c r="G10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="91" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="41"/>
@@ -2623,8 +2623,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2714,10 +2714,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="92" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2732,7 +2732,7 @@
       <c r="G12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="82" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="41"/>
@@ -2811,8 +2811,8 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="G13" s="57">
         <v>0.9</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
       <c r="K13" s="13"/>
@@ -2830,7 +2830,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="63"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="1"/>
       <c r="S13" s="63"/>
       <c r="T13" s="2"/>
@@ -2898,8 +2898,8 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="83"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="92" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2914,7 +2914,7 @@
       <c r="G14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2991,8 +2991,8 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="G15" s="57">
         <v>0.9</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="13"/>
@@ -3010,7 +3010,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="63"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="1"/>
       <c r="S15" s="63"/>
       <c r="T15" s="2"/>
@@ -3078,8 +3078,8 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="83"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="86" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3094,7 +3094,7 @@
       <c r="G16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3171,8 +3171,8 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="G17" s="57">
         <v>0.5</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
       <c r="K17" s="13"/>
@@ -3190,7 +3190,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="63"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
       <c r="S17" s="63"/>
       <c r="T17" s="2"/>
@@ -3258,8 +3258,8 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="83"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="86" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3274,7 +3274,7 @@
       <c r="G18" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3351,8 +3351,8 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="G19" s="57">
         <v>0.5</v>
       </c>
-      <c r="H19" s="94"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
       <c r="K19" s="13"/>
@@ -3370,7 +3370,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="63"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="1"/>
       <c r="S19" s="63"/>
       <c r="T19" s="2"/>
@@ -3438,10 +3438,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="92" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3456,7 +3456,7 @@
       <c r="G20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="82" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="41"/>
@@ -3535,8 +3535,8 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="G21" s="57">
         <v>0.9</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3554,7 +3554,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="63"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="1"/>
       <c r="S21" s="63"/>
       <c r="T21" s="2"/>
@@ -3622,8 +3622,8 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="83"/>
-      <c r="C22" s="85" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="92" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3638,7 +3638,7 @@
       <c r="G22" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3715,17 +3715,17 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="93"/>
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="84"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="63"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="63"/>
@@ -3802,8 +3802,8 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="83"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="86" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3818,7 +3818,7 @@
       <c r="G24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3895,8 +3895,8 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="83"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="93"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3982,8 +3982,8 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="83"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="96"/>
+      <c r="C26" s="86" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3998,7 +3998,7 @@
       <c r="G26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4075,8 +4075,8 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="84"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="94"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4162,10 +4162,10 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4180,7 +4180,7 @@
       <c r="G28" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="82" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="41"/>
@@ -4259,8 +4259,8 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="95"/>
-      <c r="C29" s="91"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="93"/>
+      <c r="H29" s="84"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4346,8 +4346,8 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="95"/>
-      <c r="C30" s="91" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4362,7 +4362,7 @@
       <c r="G30" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4439,8 +4439,8 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="95"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="93"/>
+      <c r="H31" s="84"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4526,8 +4526,8 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="95"/>
-      <c r="C32" s="91" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="86" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4542,7 +4542,7 @@
       <c r="G32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="93"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4619,8 +4619,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="95"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="94"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4706,8 +4706,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="95"/>
-      <c r="C34" s="91" t="s">
+      <c r="B34" s="85"/>
+      <c r="C34" s="86" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4722,7 +4722,7 @@
       <c r="G34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="82" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="41"/>
@@ -4801,8 +4801,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="95"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="93"/>
+      <c r="H35" s="84"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4888,8 +4888,8 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="95"/>
-      <c r="C36" s="91" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="86" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4904,7 +4904,7 @@
       <c r="G36" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="93"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4981,8 +4981,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="95"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="93"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5068,8 +5068,8 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="95"/>
-      <c r="C38" s="91" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5084,7 +5084,7 @@
       <c r="G38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="93"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5161,8 +5161,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="95"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="94"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5248,8 +5248,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="95"/>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="86" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5264,7 +5264,7 @@
       <c r="G40" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="92" t="s">
+      <c r="H40" s="82" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="41"/>
@@ -5343,8 +5343,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="95"/>
-      <c r="C41" s="91"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="93"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5430,8 +5430,8 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="95"/>
-      <c r="C42" s="91" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5446,7 +5446,7 @@
       <c r="G42" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="93"/>
+      <c r="H42" s="84"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5523,8 +5523,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="95"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="93"/>
+      <c r="H43" s="84"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5610,8 +5610,8 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="95"/>
-      <c r="C44" s="91" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="86" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5626,7 +5626,7 @@
       <c r="G44" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="93"/>
+      <c r="H44" s="84"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5703,8 +5703,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="94"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5790,10 +5790,10 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="86" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5808,7 +5808,7 @@
       <c r="G46" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="92" t="s">
+      <c r="H46" s="82" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="20"/>
@@ -5887,8 +5887,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="95"/>
-      <c r="C47" s="91"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="94"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -6360,11 +6360,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6381,28 +6398,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43117B-7295-44D7-97C2-A653EE54510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ADFE5F-06EC-431F-A685-2BF899C5D367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
@@ -991,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,21 +1238,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,32 +1295,11 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,7 +1618,7 @@
   <dimension ref="A1:CD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -1636,95 +1642,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="97" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="97" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="97" t="s">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="98"/>
-      <c r="BC2" s="98"/>
-      <c r="BD2" s="98"/>
-      <c r="BE2" s="98"/>
-      <c r="BF2" s="98"/>
-      <c r="BG2" s="98"/>
-      <c r="BH2" s="98"/>
-      <c r="BI2" s="98"/>
-      <c r="BJ2" s="98"/>
-      <c r="BK2" s="98"/>
-      <c r="BL2" s="98"/>
-      <c r="BM2" s="98"/>
-      <c r="BN2" s="98"/>
-      <c r="BO2" s="98"/>
-      <c r="BP2" s="98"/>
-      <c r="BQ2" s="98"/>
-      <c r="BR2" s="98"/>
-      <c r="BS2" s="98"/>
-      <c r="BT2" s="98"/>
-      <c r="BU2" s="98"/>
-      <c r="BV2" s="98"/>
-      <c r="BW2" s="98"/>
-      <c r="BX2" s="98"/>
-      <c r="BY2" s="98"/>
-      <c r="BZ2" s="98"/>
-      <c r="CA2" s="98"/>
-      <c r="CB2" s="98"/>
-      <c r="CC2" s="98"/>
-      <c r="CD2" s="99"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
+      <c r="BX2" s="88"/>
+      <c r="BY2" s="88"/>
+      <c r="BZ2" s="88"/>
+      <c r="CA2" s="88"/>
+      <c r="CB2" s="88"/>
+      <c r="CC2" s="88"/>
+      <c r="CD2" s="89"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1772,7 +1778,7 @@
       <c r="P3" s="31">
         <v>25</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="61">
         <v>26</v>
       </c>
       <c r="R3" s="31">
@@ -1972,10 +1978,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="90" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1990,7 +1996,7 @@
       <c r="G4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="99" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="43"/>
@@ -2001,7 +2007,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="62"/>
       <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="22"/>
       <c r="S4" s="62"/>
       <c r="T4" s="23"/>
@@ -2069,8 +2075,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="85"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2089,7 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2092,7 +2098,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="63"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="63"/>
       <c r="R5" s="1"/>
       <c r="S5" s="63"/>
       <c r="T5" s="2"/>
@@ -2160,10 +2166,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2178,7 +2184,7 @@
       <c r="G6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="100" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="41"/>
@@ -2189,7 +2195,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="63"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="1"/>
       <c r="S6" s="63"/>
       <c r="T6" s="2"/>
@@ -2257,8 +2263,8 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="85"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2273,7 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="41"/>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2276,7 +2282,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="63"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="1"/>
       <c r="S7" s="63"/>
       <c r="T7" s="2"/>
@@ -2344,10 +2350,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2362,7 +2368,7 @@
       <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="100" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="41"/>
@@ -2373,7 +2379,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="63"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="1"/>
       <c r="S8" s="63"/>
       <c r="T8" s="2"/>
@@ -2441,8 +2447,8 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="96"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2457,7 @@
       <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="41"/>
       <c r="J9" s="12"/>
       <c r="K9" s="1"/>
@@ -2460,7 +2466,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="63"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="63"/>
       <c r="R9" s="1"/>
       <c r="S9" s="63"/>
       <c r="T9" s="2"/>
@@ -2528,8 +2534,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="96"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2544,7 +2550,7 @@
       <c r="G10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="100" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="41"/>
@@ -2555,7 +2561,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="63"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="63"/>
       <c r="R10" s="1"/>
       <c r="S10" s="63"/>
       <c r="T10" s="2"/>
@@ -2623,8 +2629,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="94"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2643,7 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2646,7 +2652,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="63"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="1"/>
       <c r="S11" s="63"/>
       <c r="T11" s="2"/>
@@ -2714,10 +2720,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2732,24 +2738,24 @@
       <c r="G12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="92" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="63"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="63"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="68"/>
-      <c r="W12" s="45"/>
+      <c r="W12" s="13"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
@@ -2811,8 +2817,8 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="96"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
@@ -2821,22 +2827,22 @@
       <c r="G13" s="57">
         <v>0.9</v>
       </c>
-      <c r="H13" s="84"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="63"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="1"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="65"/>
       <c r="S13" s="63"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="68"/>
-      <c r="W13" s="45"/>
+      <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
@@ -2898,8 +2904,8 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="96"/>
-      <c r="C14" s="92" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="85" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2914,7 +2920,7 @@
       <c r="G14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2923,13 +2929,13 @@
       <c r="N14" s="2"/>
       <c r="O14" s="63"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="13"/>
       <c r="S14" s="63"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="68"/>
-      <c r="W14" s="45"/>
+      <c r="W14" s="13"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
@@ -2991,8 +2997,8 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="96"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
@@ -3001,22 +3007,22 @@
       <c r="G15" s="57">
         <v>0.9</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="63"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="1"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="63"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="68"/>
-      <c r="W15" s="45"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
@@ -3078,8 +3084,8 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="96"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3094,7 +3100,7 @@
       <c r="G16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3103,13 +3109,13 @@
       <c r="N16" s="2"/>
       <c r="O16" s="63"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="13"/>
       <c r="S16" s="63"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="68"/>
-      <c r="W16" s="45"/>
+      <c r="W16" s="13"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
@@ -3171,8 +3177,8 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="96"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
@@ -3181,22 +3187,22 @@
       <c r="G17" s="57">
         <v>0.5</v>
       </c>
-      <c r="H17" s="84"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="63"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="1"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="63"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="68"/>
-      <c r="W17" s="45"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
@@ -3258,8 +3264,8 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="96"/>
-      <c r="C18" s="86" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="91" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3274,7 +3280,7 @@
       <c r="G18" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3283,13 +3289,13 @@
       <c r="N18" s="2"/>
       <c r="O18" s="63"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="63"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="68"/>
-      <c r="W18" s="45"/>
+      <c r="W18" s="13"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
@@ -3351,8 +3357,8 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="94"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
@@ -3361,22 +3367,22 @@
       <c r="G19" s="57">
         <v>0.5</v>
       </c>
-      <c r="H19" s="83"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="63"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="1"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="63"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="68"/>
-      <c r="W19" s="45"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
@@ -3438,10 +3444,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3456,7 +3462,7 @@
       <c r="G20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="92" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="41"/>
@@ -3466,14 +3472,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="63"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="63"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="68"/>
-      <c r="W20" s="45"/>
+      <c r="W20" s="13"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
@@ -3535,8 +3541,8 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="96"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3551,7 @@
       <c r="G21" s="57">
         <v>0.9</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3553,14 +3559,14 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="63"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="1"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="63"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="68"/>
-      <c r="W21" s="45"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
@@ -3622,8 +3628,8 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="96"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="85" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3638,7 +3644,7 @@
       <c r="G22" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3647,13 +3653,13 @@
       <c r="N22" s="2"/>
       <c r="O22" s="63"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="15"/>
+      <c r="Q22" s="101"/>
       <c r="R22" s="15"/>
       <c r="S22" s="63"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="68"/>
-      <c r="W22" s="45"/>
+      <c r="W22" s="13"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -3715,8 +3721,8 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="96"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
@@ -3725,7 +3731,7 @@
       <c r="G23" s="57">
         <v>0.9</v>
       </c>
-      <c r="H23" s="84"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3734,13 +3740,12 @@
       <c r="N23" s="2"/>
       <c r="O23" s="63"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="63"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="68"/>
-      <c r="W23" s="45"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
@@ -3802,8 +3807,8 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="96"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3818,7 +3823,7 @@
       <c r="G24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3827,13 +3832,13 @@
       <c r="N24" s="2"/>
       <c r="O24" s="63"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="101"/>
       <c r="R24" s="15"/>
       <c r="S24" s="63"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="68"/>
-      <c r="W24" s="45"/>
+      <c r="W24" s="13"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
@@ -3895,8 +3900,8 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="96"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +3910,7 @@
       <c r="G25" s="57">
         <v>0</v>
       </c>
-      <c r="H25" s="84"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3914,13 +3919,12 @@
       <c r="N25" s="2"/>
       <c r="O25" s="63"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="63"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="68"/>
-      <c r="W25" s="45"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
@@ -3982,8 +3986,8 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="96"/>
-      <c r="C26" s="86" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="91" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -3998,7 +4002,7 @@
       <c r="G26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="84"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4007,13 +4011,13 @@
       <c r="N26" s="2"/>
       <c r="O26" s="63"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="101"/>
       <c r="R26" s="15"/>
       <c r="S26" s="63"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="68"/>
-      <c r="W26" s="45"/>
+      <c r="W26" s="13"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
@@ -4075,8 +4079,8 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="94"/>
-      <c r="C27" s="86"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4089,7 @@
       <c r="G27" s="57">
         <v>0</v>
       </c>
-      <c r="H27" s="83"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4094,8 +4098,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="63"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="12"/>
       <c r="S27" s="63"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -4162,10 +4166,10 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="91" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4180,7 +4184,7 @@
       <c r="G28" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="82" t="s">
+      <c r="H28" s="92" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="41"/>
@@ -4191,7 +4195,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="63"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="101"/>
       <c r="R28" s="16"/>
       <c r="S28" s="63"/>
       <c r="T28" s="2"/>
@@ -4259,8 +4263,8 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="G29" s="57">
         <v>0</v>
       </c>
-      <c r="H29" s="84"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4278,7 +4282,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="63"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="63"/>
       <c r="R29" s="1"/>
       <c r="S29" s="63"/>
       <c r="T29" s="2"/>
@@ -4346,8 +4350,8 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="85"/>
-      <c r="C30" s="86" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="91" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4362,7 +4366,7 @@
       <c r="G30" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="84"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4371,7 +4375,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="63"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="16"/>
       <c r="S30" s="63"/>
       <c r="T30" s="2"/>
@@ -4439,8 +4443,8 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
@@ -4449,7 +4453,7 @@
       <c r="G31" s="57">
         <v>0</v>
       </c>
-      <c r="H31" s="84"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4458,7 +4462,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="63"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="101"/>
       <c r="R31" s="16"/>
       <c r="S31" s="63"/>
       <c r="T31" s="2"/>
@@ -4526,8 +4530,8 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="85"/>
-      <c r="C32" s="86" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="91" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4542,7 +4546,7 @@
       <c r="G32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="84"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4551,7 +4555,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="63"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="101"/>
       <c r="R32" s="16"/>
       <c r="S32" s="63"/>
       <c r="T32" s="2"/>
@@ -4619,8 +4623,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4629,7 +4633,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="83"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4638,7 +4642,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="63"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="101"/>
       <c r="R33" s="16"/>
       <c r="S33" s="63"/>
       <c r="T33" s="2"/>
@@ -4706,8 +4710,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="85"/>
-      <c r="C34" s="86" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="91" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4722,7 +4726,7 @@
       <c r="G34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="82" t="s">
+      <c r="H34" s="92" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="41"/>
@@ -4733,7 +4737,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="63"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="63"/>
       <c r="R34" s="1"/>
       <c r="S34" s="63"/>
       <c r="T34" s="2"/>
@@ -4801,8 +4805,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4815,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="84"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4820,7 +4824,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="63"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="63"/>
       <c r="R35" s="1"/>
       <c r="S35" s="63"/>
       <c r="T35" s="2"/>
@@ -4888,8 +4892,8 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="85"/>
-      <c r="C36" s="86" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="91" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4904,7 +4908,7 @@
       <c r="G36" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="84"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4913,7 +4917,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="63"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="101"/>
       <c r="R36" s="16"/>
       <c r="S36" s="63"/>
       <c r="T36" s="2"/>
@@ -4981,8 +4985,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4991,7 +4995,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="84"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5000,7 +5004,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="63"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="101"/>
       <c r="R37" s="16"/>
       <c r="S37" s="63"/>
       <c r="T37" s="2"/>
@@ -5068,8 +5072,8 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="85"/>
-      <c r="C38" s="86" t="s">
+      <c r="B38" s="95"/>
+      <c r="C38" s="91" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5084,7 +5088,7 @@
       <c r="G38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="84"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5093,7 +5097,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="63"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="16"/>
+      <c r="Q38" s="101"/>
       <c r="R38" s="16"/>
       <c r="S38" s="63"/>
       <c r="T38" s="2"/>
@@ -5161,8 +5165,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5171,7 +5175,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="83"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5180,7 +5184,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="63"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="16"/>
+      <c r="Q39" s="101"/>
       <c r="R39" s="16"/>
       <c r="S39" s="63"/>
       <c r="T39" s="2"/>
@@ -5248,8 +5252,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="85"/>
-      <c r="C40" s="86" t="s">
+      <c r="B40" s="95"/>
+      <c r="C40" s="91" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5264,7 +5268,7 @@
       <c r="G40" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="82" t="s">
+      <c r="H40" s="92" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="41"/>
@@ -5275,7 +5279,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="63"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="63"/>
       <c r="R40" s="1"/>
       <c r="S40" s="63"/>
       <c r="T40" s="2"/>
@@ -5343,8 +5347,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="85"/>
-      <c r="C41" s="86"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5357,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="84"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5362,7 +5366,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="63"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="Q41" s="63"/>
       <c r="R41" s="1"/>
       <c r="S41" s="63"/>
       <c r="T41" s="2"/>
@@ -5430,8 +5434,8 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="85"/>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="91" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5446,7 +5450,7 @@
       <c r="G42" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="84"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5455,7 +5459,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="63"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="16"/>
+      <c r="Q42" s="101"/>
       <c r="R42" s="16"/>
       <c r="S42" s="63"/>
       <c r="T42" s="2"/>
@@ -5523,8 +5527,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="85"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5537,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="84"/>
+      <c r="H43" s="93"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5542,7 +5546,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="63"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="16"/>
+      <c r="Q43" s="101"/>
       <c r="R43" s="16"/>
       <c r="S43" s="63"/>
       <c r="T43" s="2"/>
@@ -5610,8 +5614,8 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="85"/>
-      <c r="C44" s="86" t="s">
+      <c r="B44" s="95"/>
+      <c r="C44" s="91" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5626,7 +5630,7 @@
       <c r="G44" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="84"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5635,7 +5639,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="63"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="16"/>
+      <c r="Q44" s="101"/>
       <c r="R44" s="16"/>
       <c r="S44" s="63"/>
       <c r="T44" s="2"/>
@@ -5703,8 +5707,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="95"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5717,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="83"/>
+      <c r="H45" s="94"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5722,7 +5726,7 @@
       <c r="N45" s="60"/>
       <c r="O45" s="64"/>
       <c r="P45" s="50"/>
-      <c r="Q45" s="53"/>
+      <c r="Q45" s="102"/>
       <c r="R45" s="53"/>
       <c r="S45" s="64"/>
       <c r="T45" s="60"/>
@@ -5790,10 +5794,10 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5808,7 +5812,7 @@
       <c r="G46" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="92" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="20"/>
@@ -5819,7 +5823,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="63"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="63"/>
       <c r="R46" s="1"/>
       <c r="S46" s="63"/>
       <c r="T46" s="2"/>
@@ -5887,8 +5891,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="85"/>
-      <c r="C47" s="86"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5897,7 +5901,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="83"/>
+      <c r="H47" s="94"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -5906,7 +5910,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="63"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="63"/>
       <c r="R47" s="1"/>
       <c r="S47" s="63"/>
       <c r="T47" s="2"/>
@@ -6360,28 +6364,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BA2:CD2"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H20:H27"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B2:H2"/>
@@ -6398,11 +6385,28 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BA2:CD2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H12:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
+++ b/01.設計/01.スケジュール/AnnotationToolスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\01.スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ADFE5F-06EC-431F-A685-2BF899C5D367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12977B07-6F24-4C36-BCFB-0A9462B711E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{700C5A8D-DE25-4E30-A254-D2ED60968B94}"/>
   </bookViews>
@@ -1238,6 +1238,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,12 +1300,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,10 +1618,10 @@
   <dimension ref="A1:CD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W33" activeCellId="1" sqref="W31 W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1642,95 +1642,95 @@
   <sheetData>
     <row r="1" spans="2:82" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="87" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="87" t="s">
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="87" t="s">
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="88"/>
-      <c r="BT2" s="88"/>
-      <c r="BU2" s="88"/>
-      <c r="BV2" s="88"/>
-      <c r="BW2" s="88"/>
-      <c r="BX2" s="88"/>
-      <c r="BY2" s="88"/>
-      <c r="BZ2" s="88"/>
-      <c r="CA2" s="88"/>
-      <c r="CB2" s="88"/>
-      <c r="CC2" s="88"/>
-      <c r="CD2" s="89"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="90"/>
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="90"/>
+      <c r="BK2" s="90"/>
+      <c r="BL2" s="90"/>
+      <c r="BM2" s="90"/>
+      <c r="BN2" s="90"/>
+      <c r="BO2" s="90"/>
+      <c r="BP2" s="90"/>
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="90"/>
+      <c r="BS2" s="90"/>
+      <c r="BT2" s="90"/>
+      <c r="BU2" s="90"/>
+      <c r="BV2" s="90"/>
+      <c r="BW2" s="90"/>
+      <c r="BX2" s="90"/>
+      <c r="BY2" s="90"/>
+      <c r="BZ2" s="90"/>
+      <c r="CA2" s="90"/>
+      <c r="CB2" s="90"/>
+      <c r="CC2" s="90"/>
+      <c r="CD2" s="91"/>
     </row>
     <row r="3" spans="2:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
@@ -1978,10 +1978,10 @@
       </c>
     </row>
     <row r="4" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="92" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -1996,7 +1996,7 @@
       <c r="G4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="101" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="43"/>
@@ -2075,8 +2075,8 @@
       <c r="CD4" s="18"/>
     </row>
     <row r="5" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B5" s="95"/>
-      <c r="C5" s="86"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="G5" s="57">
         <v>1</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2166,10 +2166,10 @@
       <c r="CD5" s="19"/>
     </row>
     <row r="6" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="87" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2184,7 +2184,7 @@
       <c r="G6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="102" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="41"/>
@@ -2263,8 +2263,8 @@
       <c r="CD6" s="19"/>
     </row>
     <row r="7" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B7" s="95"/>
-      <c r="C7" s="86"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="41"/>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2350,10 +2350,10 @@
       <c r="CD7" s="19"/>
     </row>
     <row r="8" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="87" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -2368,7 +2368,7 @@
       <c r="G8" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="102" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="41"/>
@@ -2447,8 +2447,8 @@
       <c r="CD8" s="19"/>
     </row>
     <row r="9" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="G9" s="57">
         <v>1</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="41"/>
       <c r="J9" s="12"/>
       <c r="K9" s="1"/>
@@ -2534,8 +2534,8 @@
       <c r="CD9" s="19"/>
     </row>
     <row r="10" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B10" s="83"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="87" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2550,7 +2550,7 @@
       <c r="G10" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="102" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="41"/>
@@ -2629,8 +2629,8 @@
       <c r="CD10" s="19"/>
     </row>
     <row r="11" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="25" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="G11" s="57">
         <v>1</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2720,10 +2720,10 @@
       <c r="CD11" s="19"/>
     </row>
     <row r="12" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="87" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2738,7 +2738,7 @@
       <c r="G12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="94" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="41"/>
@@ -2817,8 +2817,8 @@
       <c r="CD12" s="19"/>
     </row>
     <row r="13" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="G13" s="57">
         <v>0.9</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="41"/>
       <c r="J13" s="1"/>
       <c r="K13" s="12"/>
@@ -2904,8 +2904,8 @@
       <c r="CD13" s="19"/>
     </row>
     <row r="14" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B14" s="83"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="87" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2920,7 +2920,7 @@
       <c r="G14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="41"/>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
@@ -2997,8 +2997,8 @@
       <c r="CD14" s="19"/>
     </row>
     <row r="15" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="25" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="G15" s="57">
         <v>0.9</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="12"/>
@@ -3084,8 +3084,8 @@
       <c r="CD15" s="19"/>
     </row>
     <row r="16" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B16" s="83"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -3100,7 +3100,7 @@
       <c r="G16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="41"/>
       <c r="J16" s="1"/>
       <c r="K16" s="15"/>
@@ -3177,8 +3177,8 @@
       <c r="CD16" s="19"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="G17" s="57">
         <v>0.5</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
       <c r="K17" s="12"/>
@@ -3264,8 +3264,8 @@
       <c r="CD17" s="19"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B18" s="83"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="93" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -3280,7 +3280,7 @@
       <c r="G18" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="41"/>
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
@@ -3357,8 +3357,8 @@
       <c r="CD18" s="19"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="25" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="G19" s="57">
         <v>0.5</v>
       </c>
-      <c r="H19" s="94"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="41"/>
       <c r="J19" s="1"/>
       <c r="K19" s="12"/>
@@ -3444,10 +3444,10 @@
       <c r="CD19" s="19"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="87" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -3462,7 +3462,7 @@
       <c r="G20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="94" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="41"/>
@@ -3541,8 +3541,8 @@
       <c r="CD20" s="19"/>
     </row>
     <row r="21" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="G21" s="57">
         <v>0.9</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="41"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3628,8 +3628,8 @@
       <c r="CD21" s="19"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B22" s="83"/>
-      <c r="C22" s="85" t="s">
+      <c r="B22" s="85"/>
+      <c r="C22" s="87" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -3644,7 +3644,7 @@
       <c r="G22" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="41"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
@@ -3653,7 +3653,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="63"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="101"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="15"/>
       <c r="S22" s="63"/>
       <c r="T22" s="2"/>
@@ -3721,8 +3721,8 @@
       <c r="CD22" s="19"/>
     </row>
     <row r="23" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="G23" s="57">
         <v>0.9</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="95"/>
       <c r="I23" s="41"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3740,7 +3740,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="63"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="101"/>
+      <c r="Q23" s="82"/>
       <c r="R23" s="12"/>
       <c r="S23" s="63"/>
       <c r="T23" s="2"/>
@@ -3807,8 +3807,8 @@
       <c r="CD23" s="19"/>
     </row>
     <row r="24" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B24" s="83"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3821,9 +3821,9 @@
         <v>44343</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="93"/>
+        <v>52</v>
+      </c>
+      <c r="H24" s="95"/>
       <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3832,7 +3832,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="63"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="101"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="15"/>
       <c r="S24" s="63"/>
       <c r="T24" s="2"/>
@@ -3900,17 +3900,17 @@
       <c r="CD24" s="19"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B25" s="83"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="57">
-        <v>0</v>
-      </c>
-      <c r="H25" s="93"/>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="95"/>
       <c r="I25" s="41"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3919,7 +3919,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="63"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="101"/>
+      <c r="Q25" s="82"/>
       <c r="R25" s="12"/>
       <c r="S25" s="63"/>
       <c r="T25" s="2"/>
@@ -3986,8 +3986,8 @@
       <c r="CD25" s="19"/>
     </row>
     <row r="26" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B26" s="83"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="93" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -4000,9 +4000,9 @@
         <v>44343</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="93"/>
+        <v>52</v>
+      </c>
+      <c r="H26" s="95"/>
       <c r="I26" s="41"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -4011,7 +4011,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="63"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="101"/>
+      <c r="Q26" s="82"/>
       <c r="R26" s="15"/>
       <c r="S26" s="63"/>
       <c r="T26" s="2"/>
@@ -4079,17 +4079,17 @@
       <c r="CD26" s="19"/>
     </row>
     <row r="27" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B27" s="84"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="57">
-        <v>0</v>
-      </c>
-      <c r="H27" s="94"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="96"/>
       <c r="I27" s="41"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -4098,7 +4098,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="63"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="101"/>
+      <c r="Q27" s="82"/>
       <c r="R27" s="12"/>
       <c r="S27" s="63"/>
       <c r="T27" s="2"/>
@@ -4166,10 +4166,10 @@
       <c r="CD27" s="19"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="93" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -4182,9 +4182,9 @@
         <v>44348</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="94" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="41"/>
@@ -4195,7 +4195,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="63"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="101"/>
+      <c r="Q28" s="82"/>
       <c r="R28" s="16"/>
       <c r="S28" s="63"/>
       <c r="T28" s="2"/>
@@ -4263,17 +4263,17 @@
       <c r="CD28" s="19"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B29" s="95"/>
-      <c r="C29" s="91"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="57">
-        <v>0</v>
-      </c>
-      <c r="H29" s="93"/>
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="95"/>
       <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4288,7 +4288,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="68"/>
-      <c r="W29" s="45"/>
+      <c r="W29" s="12"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
@@ -4350,8 +4350,8 @@
       <c r="CD29" s="19"/>
     </row>
     <row r="30" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B30" s="95"/>
-      <c r="C30" s="91" t="s">
+      <c r="B30" s="97"/>
+      <c r="C30" s="93" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -4364,9 +4364,9 @@
         <v>44348</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="93"/>
+        <v>52</v>
+      </c>
+      <c r="H30" s="95"/>
       <c r="I30" s="41"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4375,7 +4375,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="63"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="101"/>
+      <c r="Q30" s="82"/>
       <c r="R30" s="16"/>
       <c r="S30" s="63"/>
       <c r="T30" s="2"/>
@@ -4443,17 +4443,17 @@
       <c r="CD30" s="19"/>
     </row>
     <row r="31" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B31" s="95"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="57">
-        <v>0</v>
-      </c>
-      <c r="H31" s="93"/>
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="95"/>
       <c r="I31" s="41"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4462,13 +4462,13 @@
       <c r="N31" s="2"/>
       <c r="O31" s="63"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="101"/>
+      <c r="Q31" s="82"/>
       <c r="R31" s="16"/>
       <c r="S31" s="63"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="68"/>
-      <c r="W31" s="45"/>
+      <c r="W31" s="13"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
@@ -4530,8 +4530,8 @@
       <c r="CD31" s="19"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B32" s="95"/>
-      <c r="C32" s="91" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="93" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -4546,7 +4546,7 @@
       <c r="G32" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="93"/>
+      <c r="H32" s="95"/>
       <c r="I32" s="41"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4555,7 +4555,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="63"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="101"/>
+      <c r="Q32" s="82"/>
       <c r="R32" s="16"/>
       <c r="S32" s="63"/>
       <c r="T32" s="2"/>
@@ -4623,8 +4623,8 @@
       <c r="CD32" s="19"/>
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B33" s="95"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="25" t="s">
         <v>10</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="G33" s="57">
         <v>0</v>
       </c>
-      <c r="H33" s="94"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="41"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4642,13 +4642,13 @@
       <c r="N33" s="2"/>
       <c r="O33" s="63"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="101"/>
+      <c r="Q33" s="82"/>
       <c r="R33" s="16"/>
       <c r="S33" s="63"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="68"/>
-      <c r="W33" s="45"/>
+      <c r="W33" s="13"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
@@ -4710,8 +4710,8 @@
       <c r="CD33" s="19"/>
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B34" s="95"/>
-      <c r="C34" s="91" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="93" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -4726,7 +4726,7 @@
       <c r="G34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="94" t="s">
         <v>49</v>
       </c>
       <c r="I34" s="41"/>
@@ -4805,8 +4805,8 @@
       <c r="CD34" s="19"/>
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B35" s="95"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="25" t="s">
         <v>10</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="G35" s="57">
         <v>0</v>
       </c>
-      <c r="H35" s="93"/>
+      <c r="H35" s="95"/>
       <c r="I35" s="41"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4892,8 +4892,8 @@
       <c r="CD35" s="19"/>
     </row>
     <row r="36" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="95"/>
-      <c r="C36" s="91" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="93" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4908,7 +4908,7 @@
       <c r="G36" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="93"/>
+      <c r="H36" s="95"/>
       <c r="I36" s="41"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -4917,7 +4917,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="63"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="101"/>
+      <c r="Q36" s="82"/>
       <c r="R36" s="16"/>
       <c r="S36" s="63"/>
       <c r="T36" s="2"/>
@@ -4985,8 +4985,8 @@
       <c r="CD36" s="19"/>
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B37" s="95"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="25" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="G37" s="57">
         <v>0</v>
       </c>
-      <c r="H37" s="93"/>
+      <c r="H37" s="95"/>
       <c r="I37" s="41"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5004,7 +5004,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="63"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="101"/>
+      <c r="Q37" s="82"/>
       <c r="R37" s="16"/>
       <c r="S37" s="63"/>
       <c r="T37" s="2"/>
@@ -5072,8 +5072,8 @@
       <c r="CD37" s="19"/>
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B38" s="95"/>
-      <c r="C38" s="91" t="s">
+      <c r="B38" s="97"/>
+      <c r="C38" s="93" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -5088,7 +5088,7 @@
       <c r="G38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="93"/>
+      <c r="H38" s="95"/>
       <c r="I38" s="41"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5097,7 +5097,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="63"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="101"/>
+      <c r="Q38" s="82"/>
       <c r="R38" s="16"/>
       <c r="S38" s="63"/>
       <c r="T38" s="2"/>
@@ -5165,8 +5165,8 @@
       <c r="CD38" s="19"/>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B39" s="95"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="25" t="s">
         <v>10</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="G39" s="57">
         <v>0</v>
       </c>
-      <c r="H39" s="94"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="41"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5184,7 +5184,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="63"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="101"/>
+      <c r="Q39" s="82"/>
       <c r="R39" s="16"/>
       <c r="S39" s="63"/>
       <c r="T39" s="2"/>
@@ -5252,8 +5252,8 @@
       <c r="CD39" s="19"/>
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B40" s="95"/>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="97"/>
+      <c r="C40" s="93" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -5268,7 +5268,7 @@
       <c r="G40" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="92" t="s">
+      <c r="H40" s="94" t="s">
         <v>50</v>
       </c>
       <c r="I40" s="41"/>
@@ -5347,8 +5347,8 @@
       <c r="CD40" s="19"/>
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B41" s="95"/>
-      <c r="C41" s="91"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="25" t="s">
         <v>10</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="G41" s="57">
         <v>0</v>
       </c>
-      <c r="H41" s="93"/>
+      <c r="H41" s="95"/>
       <c r="I41" s="41"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5434,8 +5434,8 @@
       <c r="CD41" s="19"/>
     </row>
     <row r="42" spans="2:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="95"/>
-      <c r="C42" s="91" t="s">
+      <c r="B42" s="97"/>
+      <c r="C42" s="93" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -5450,7 +5450,7 @@
       <c r="G42" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="93"/>
+      <c r="H42" s="95"/>
       <c r="I42" s="41"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -5459,7 +5459,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="63"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="101"/>
+      <c r="Q42" s="82"/>
       <c r="R42" s="16"/>
       <c r="S42" s="63"/>
       <c r="T42" s="2"/>
@@ -5527,8 +5527,8 @@
       <c r="CD42" s="19"/>
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B43" s="95"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="25" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="G43" s="57">
         <v>0</v>
       </c>
-      <c r="H43" s="93"/>
+      <c r="H43" s="95"/>
       <c r="I43" s="41"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -5546,7 +5546,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="63"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="101"/>
+      <c r="Q43" s="82"/>
       <c r="R43" s="16"/>
       <c r="S43" s="63"/>
       <c r="T43" s="2"/>
@@ -5614,8 +5614,8 @@
       <c r="CD43" s="19"/>
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B44" s="95"/>
-      <c r="C44" s="91" t="s">
+      <c r="B44" s="97"/>
+      <c r="C44" s="93" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -5630,7 +5630,7 @@
       <c r="G44" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="93"/>
+      <c r="H44" s="95"/>
       <c r="I44" s="41"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5639,7 +5639,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="63"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="101"/>
+      <c r="Q44" s="82"/>
       <c r="R44" s="16"/>
       <c r="S44" s="63"/>
       <c r="T44" s="2"/>
@@ -5707,8 +5707,8 @@
       <c r="CD44" s="19"/>
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="49" t="s">
         <v>10</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="G45" s="57">
         <v>0</v>
       </c>
-      <c r="H45" s="94"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="52"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
@@ -5726,7 +5726,7 @@
       <c r="N45" s="60"/>
       <c r="O45" s="64"/>
       <c r="P45" s="50"/>
-      <c r="Q45" s="102"/>
+      <c r="Q45" s="83"/>
       <c r="R45" s="53"/>
       <c r="S45" s="64"/>
       <c r="T45" s="60"/>
@@ -5794,10 +5794,10 @@
       <c r="CD45" s="51"/>
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="93" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5812,7 +5812,7 @@
       <c r="G46" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="92" t="s">
+      <c r="H46" s="94" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="20"/>
@@ -5891,8 +5891,8 @@
       <c r="CD46" s="19"/>
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.4">
-      <c r="B47" s="95"/>
-      <c r="C47" s="91"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="G47" s="57">
         <v>0</v>
       </c>
-      <c r="H47" s="94"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
